--- a/notebooks/GenVeg/GenVeg_OR_Dune_Simulation.xlsx
+++ b/notebooks/GenVeg/GenVeg_OR_Dune_Simulation.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\landlab\notebooks\GenVeg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9DBD7E-9A60-47CC-902D-41A5F07E9ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD343CCC-6A71-46B3-B1F4-FFFEED924F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="-21270" windowWidth="57840" windowHeight="32040" xr2:uid="{4FA2BB3E-4334-4C54-90D8-DFF869504B66}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4FA2BB3E-4334-4C54-90D8-DFF869504B66}"/>
   </bookViews>
   <sheets>
     <sheet name="AMAR" sheetId="3" r:id="rId1"/>
     <sheet name="AMBR" sheetId="1" r:id="rId2"/>
-    <sheet name="BTS" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="152">
   <si>
     <t>Parameter</t>
   </si>
@@ -348,9 +347,6 @@
     <t>Survival factor 1 predictor</t>
   </si>
   <si>
-    <t>Survival factor 1 survival rates (0-1)</t>
-  </si>
-  <si>
     <t>Survival factor 2 name</t>
   </si>
   <si>
@@ -402,9 +398,6 @@
     <t>plant_part_max</t>
   </si>
   <si>
-    <t>C3</t>
-  </si>
-  <si>
     <t>Dispersal</t>
   </si>
   <si>
@@ -465,9 +458,6 @@
     <t>root_to_stem</t>
   </si>
   <si>
-    <t>Leave blank to use default coefficients from Poorter et al 2018 based on class and group, set b2 to 0 if equation is linear</t>
-  </si>
-  <si>
     <t>root</t>
   </si>
   <si>
@@ -507,18 +497,12 @@
     <t>1=no mortality, 100% survival</t>
   </si>
   <si>
-    <t>Morphology</t>
-  </si>
-  <si>
     <t>max_shoot_sys_width</t>
   </si>
   <si>
     <t>Maximum shoot system width (m)</t>
   </si>
   <si>
-    <t>Maximum root depth (m)</t>
-  </si>
-  <si>
     <t>Maximum root system width (m)</t>
   </si>
   <si>
@@ -576,12 +560,6 @@
     <t>min_shoot_sys_width</t>
   </si>
   <si>
-    <t>BTS</t>
-  </si>
-  <si>
-    <t>DB</t>
-  </si>
-  <si>
     <t>rhizomatous</t>
   </si>
   <si>
@@ -606,9 +584,6 @@
     <t>biomass_decay_rate</t>
   </si>
   <si>
-    <t>Biomass allocation variables</t>
-  </si>
-  <si>
     <t>nsc_content</t>
   </si>
   <si>
@@ -640,6 +615,18 @@
   </si>
   <si>
     <t>perennial evergreen</t>
+  </si>
+  <si>
+    <t>Peak biomass (day-of-year)</t>
+  </si>
+  <si>
+    <t>peak_biomass</t>
+  </si>
+  <si>
+    <t>AMAR</t>
+  </si>
+  <si>
+    <t>AMBR</t>
   </si>
 </sst>
 </file>
@@ -783,7 +770,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -859,9 +846,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -875,9 +859,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1197,10 +1178,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80E79F65-55A0-4555-9123-F8DD121DC0BA}">
-  <dimension ref="A1:M225"/>
+  <dimension ref="A1:M226"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="A3" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1218,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1251,14 +1232,14 @@
         <v>6</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="12" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -1269,10 +1250,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="12" t="s">
@@ -1287,7 +1268,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>12</v>
@@ -1305,7 +1286,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>15</v>
@@ -1320,17 +1301,17 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="12" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="G7">
         <v>6</v>
@@ -1338,17 +1319,17 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="12" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="G8">
         <v>7</v>
@@ -1356,17 +1337,17 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>68</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>69</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G9">
         <v>8</v>
@@ -1377,14 +1358,14 @@
         <v>17</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G10">
         <v>9</v>
@@ -1392,7 +1373,7 @@
     </row>
     <row r="11" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
@@ -1408,7 +1389,7 @@
         <v>19</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>20</v>
@@ -1426,7 +1407,7 @@
         <v>21</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>22</v>
@@ -1439,938 +1420,938 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
-        <v>78</v>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>148</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="D14" s="18"/>
+        <v>89</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D14" s="11"/>
       <c r="E14" s="15">
-        <v>182</v>
-      </c>
-      <c r="G14">
-        <v>50</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="15">
-        <v>274</v>
+        <v>182</v>
+      </c>
+      <c r="G15">
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>23</v>
+      <c r="A16" s="19" t="s">
+        <v>130</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="15">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="18"/>
+      <c r="E17" s="15">
         <v>305</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="15">
         <v>1000</v>
       </c>
-      <c r="G17">
+      <c r="G18">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
+    <row r="19" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="8"/>
-      <c r="G18">
+      <c r="B19" s="5"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="8"/>
+      <c r="G19">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="31" t="s">
+    <row r="20" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="E19" s="15">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G19">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="31"/>
       <c r="B20" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E20" s="15">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G20">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="30"/>
+      <c r="B21" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E21" s="15">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G21">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="31"/>
-      <c r="B21" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="E21" s="15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="30"/>
+      <c r="B22" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" s="15">
         <v>0.03</v>
       </c>
-      <c r="G21">
+      <c r="G22">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="29"/>
-      <c r="B22" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="E22" s="15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="28"/>
+      <c r="B23" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" s="15">
         <v>0.01</v>
       </c>
-      <c r="G22">
+      <c r="G23">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="31" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="E23" s="15">
-        <v>1.444</v>
-      </c>
-      <c r="G23">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="31"/>
       <c r="B24" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>27</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E24" s="15">
-        <v>1.5129999999999999</v>
+        <v>1.444</v>
       </c>
       <c r="G24">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="31"/>
+      <c r="A25" s="30"/>
       <c r="B25" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>27</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E25" s="15">
-        <v>1.4630000000000001</v>
+        <v>1.5129999999999999</v>
       </c>
       <c r="G25">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="31"/>
+      <c r="A26" s="30"/>
       <c r="B26" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>27</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E26" s="15">
+        <v>1.4630000000000001</v>
+      </c>
+      <c r="G26">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="30"/>
+      <c r="B27" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" s="15">
         <v>1.4139999999999999</v>
       </c>
-      <c r="G26">
+      <c r="G27">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C27" s="10" t="s">
+      <c r="B28" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="10" t="s">
         <v>29</v>
-      </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="15">
-        <v>0.51</v>
-      </c>
-      <c r="G27">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="32.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>31</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="15">
-        <v>100</v>
-      </c>
-      <c r="F28" t="s">
-        <v>64</v>
+        <v>0.51</v>
       </c>
       <c r="G28">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="32.25" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="15">
+        <v>100</v>
+      </c>
+      <c r="F29" t="s">
+        <v>63</v>
+      </c>
+      <c r="G29">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="11"/>
+      <c r="E30" s="15">
         <v>3.7199999999999997E-2</v>
       </c>
-      <c r="G29">
+      <c r="G30">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="32" t="s">
+    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D30" s="11" t="s">
+      <c r="B31" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E30" s="15"/>
-      <c r="F30" s="16" t="s">
+      <c r="E31" s="15"/>
+      <c r="F31" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="G30">
+      <c r="G31">
         <v>27</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H31" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="32"/>
-      <c r="B31" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D31" s="11" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="31"/>
+      <c r="B32" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" s="11" t="s">
         <v>38</v>
-      </c>
-      <c r="E31" s="15"/>
-      <c r="G31">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="32"/>
-      <c r="B32" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>39</v>
       </c>
       <c r="E32" s="15"/>
       <c r="G32">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="32"/>
+      <c r="A33" s="31"/>
       <c r="B33" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E33" s="15"/>
       <c r="G33">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="32"/>
+      <c r="A34" s="31"/>
       <c r="B34" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E34" s="15"/>
       <c r="G34">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="32"/>
+      <c r="A35" s="31"/>
       <c r="B35" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E35" s="15"/>
       <c r="G35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="31"/>
+      <c r="B36" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" s="15"/>
+      <c r="G36">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="30" t="s">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D36" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="E36" s="15">
-        <v>0.01</v>
-      </c>
-      <c r="G36">
-        <v>33</v>
-      </c>
-      <c r="J36">
-        <f>E38+E37</f>
-        <v>0.7</v>
-      </c>
-      <c r="K36">
-        <f>LOG10(J36/1000)</f>
-        <v>-3.1549019599857431</v>
-      </c>
-      <c r="L36">
-        <f>J36/E67*E63</f>
-        <v>3.71875</v>
-      </c>
-      <c r="M36">
-        <f>LOG10(L36/1000)</f>
-        <v>-2.4296030169273752</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="30"/>
       <c r="B37" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C37" s="17" t="s">
         <v>41</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E37" s="15">
-        <v>0.2</v>
+        <v>0.01</v>
       </c>
       <c r="G37">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="J37">
+        <f>E39+E38</f>
+        <v>0.7</v>
+      </c>
+      <c r="K37">
+        <f>LOG10(J37/1000)</f>
+        <v>-3.1549019599857431</v>
+      </c>
+      <c r="L37">
+        <f>J37/E68*E64</f>
+        <v>3.71875</v>
+      </c>
+      <c r="M37">
+        <f>LOG10(L37/1000)</f>
+        <v>-2.4296030169273752</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="30"/>
+      <c r="A38" s="29"/>
       <c r="B38" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C38" s="17" t="s">
         <v>41</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E38" s="15">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G38">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="28"/>
+      <c r="A39" s="29"/>
       <c r="B39" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C39" s="17" t="s">
         <v>41</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E39" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="G39">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="27"/>
+      <c r="B40" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E40" s="15">
         <v>0</v>
       </c>
-      <c r="G39">
+      <c r="G40">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="30" t="s">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="B40" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D40" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="E40" s="15">
+      <c r="D41" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="E41" s="15">
         <f>0.32*18.2</f>
         <v>5.8239999999999998</v>
       </c>
-      <c r="G40">
+      <c r="G41">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="30"/>
-      <c r="B41" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D41" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="E41" s="15">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="29"/>
+      <c r="B42" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E42" s="15">
         <f>0.26*18.2</f>
         <v>4.7320000000000002</v>
       </c>
-      <c r="G41">
+      <c r="G42">
         <v>39</v>
       </c>
-      <c r="J41">
-        <f>E42+E41</f>
+      <c r="J42">
+        <f>E43+E42</f>
         <v>10.373999999999999</v>
       </c>
-      <c r="K41">
-        <f>LOG10(J41)</f>
+      <c r="K42">
+        <f>LOG10(J42)</f>
         <v>1.0159462436575661</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="30"/>
-      <c r="B42" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C42" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D42" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="E42" s="15">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="29"/>
+      <c r="B43" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="E43" s="15">
         <f>0.31*18.2</f>
         <v>5.6419999999999995</v>
       </c>
-      <c r="G42">
+      <c r="G43">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="30"/>
-      <c r="B43" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C43" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D43" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="E43" s="15">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="29"/>
+      <c r="B44" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D44" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E44" s="15">
         <f>0.11*18.2</f>
         <v>2.0019999999999998</v>
       </c>
-      <c r="G43">
+      <c r="G44">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="D44" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E44" s="15"/>
-      <c r="F44" s="16" t="s">
-        <v>149</v>
-      </c>
-    </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="30"/>
+      <c r="A45" s="29" t="s">
+        <v>142</v>
+      </c>
       <c r="B45" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E45" s="15"/>
       <c r="F45" s="16" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="30"/>
+      <c r="A46" s="29"/>
       <c r="B46" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E46" s="15"/>
       <c r="F46" s="16" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="30"/>
+      <c r="A47" s="29"/>
       <c r="B47" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E47" s="15"/>
       <c r="F47" s="16" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="30" t="s">
-        <v>151</v>
-      </c>
+      <c r="A48" s="29"/>
       <c r="B48" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="E48" s="15"/>
       <c r="F48" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="I48">
-        <f>E63/E64</f>
-        <v>3.7946428571428568</v>
-      </c>
-      <c r="J48">
-        <f>E63/E64</f>
-        <v>3.7946428571428568</v>
-      </c>
-      <c r="K48">
-        <f>LOG10(J48)</f>
-        <v>0.57917090738012988</v>
-      </c>
-      <c r="M48">
-        <f>LOG10((E41+E42)/1000)</f>
-        <v>-1.9840537563424339</v>
+        <v>141</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="30"/>
+      <c r="A49" s="29" t="s">
+        <v>143</v>
+      </c>
       <c r="B49" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E49" s="15"/>
       <c r="F49" s="16" t="s">
-        <v>149</v>
+        <v>141</v>
+      </c>
+      <c r="I49">
+        <f>E64/E65</f>
+        <v>3.7946428571428568</v>
       </c>
       <c r="J49">
-        <f>E68/E67</f>
-        <v>0.375</v>
+        <f>E64/E65</f>
+        <v>3.7946428571428568</v>
       </c>
       <c r="K49">
         <f>LOG10(J49)</f>
-        <v>-0.42596873227228116</v>
+        <v>0.57917090738012988</v>
       </c>
       <c r="M49">
-        <f>LOG10((E37+E38)/1000)</f>
-        <v>-3.1549019599857431</v>
+        <f>LOG10((E42+E43)/1000)</f>
+        <v>-1.9840537563424339</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="30"/>
+      <c r="A50" s="29"/>
       <c r="B50" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E50" s="15"/>
       <c r="F50" s="16" t="s">
-        <v>149</v>
+        <v>141</v>
+      </c>
+      <c r="J50">
+        <f>E69/E68</f>
+        <v>0.375</v>
+      </c>
+      <c r="K50">
+        <f>LOG10(J50)</f>
+        <v>-0.42596873227228116</v>
+      </c>
+      <c r="M50">
+        <f>LOG10((E38+E39)/1000)</f>
+        <v>-3.1549019599857431</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="30"/>
+      <c r="A51" s="29"/>
       <c r="B51" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E51" s="15"/>
       <c r="F51" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="J51">
-        <f>(E41+E42)/1000/(E63*PI()/4*E64^2)</f>
-        <v>0.30970013873711771</v>
+        <v>141</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="30" t="s">
-        <v>152</v>
-      </c>
+      <c r="A52" s="29"/>
       <c r="B52" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="E52" s="15"/>
       <c r="F52" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="I52">
-        <f>E63/E68</f>
-        <v>14.166666666666666</v>
+        <v>141</v>
       </c>
       <c r="J52">
-        <f>(E37+E38)/1000/(E67*PI()/4*E68^2)</f>
-        <v>1.5473397245045379</v>
+        <f>(E42+E43)/1000/(E64*PI()/4*E65^2)</f>
+        <v>0.30970013873711771</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="30"/>
+      <c r="A53" s="29" t="s">
+        <v>144</v>
+      </c>
       <c r="B53" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E53" s="15"/>
       <c r="F53" s="16" t="s">
-        <v>149</v>
+        <v>141</v>
+      </c>
+      <c r="I53">
+        <f>E64/E69</f>
+        <v>14.166666666666666</v>
+      </c>
+      <c r="J53">
+        <f>(E38+E39)/1000/(E68*PI()/4*E69^2)</f>
+        <v>1.5473397245045379</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="30"/>
+      <c r="A54" s="29"/>
       <c r="B54" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E54" s="15"/>
       <c r="F54" s="16" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="30"/>
+      <c r="A55" s="29"/>
       <c r="B55" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E55" s="15"/>
       <c r="F55" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="K55">
-        <f>(K48-K49)/K49</f>
-        <v>-2.3596559172092499</v>
-      </c>
-      <c r="M55">
-        <f>(M49-M48)/M49</f>
-        <v>0.37112031324377515</v>
+        <v>141</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" s="30" t="s">
-        <v>153</v>
-      </c>
+      <c r="A56" s="29"/>
       <c r="B56" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="E56" s="15"/>
       <c r="F56" s="16" t="s">
-        <v>149</v>
+        <v>141</v>
+      </c>
+      <c r="K56">
+        <f>(K49-K50)/K50</f>
+        <v>-2.3596559172092499</v>
+      </c>
+      <c r="M56">
+        <f>(M50-M49)/M50</f>
+        <v>0.37112031324377515</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" s="30"/>
+      <c r="A57" s="29" t="s">
+        <v>145</v>
+      </c>
       <c r="B57" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E57" s="15"/>
       <c r="F57" s="16" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" s="30"/>
+      <c r="A58" s="29"/>
       <c r="B58" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E58" s="15"/>
       <c r="F58" s="16" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" s="30"/>
+      <c r="A59" s="29"/>
       <c r="B59" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E59" s="15"/>
       <c r="F59" s="16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" s="29"/>
+      <c r="B60" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E60" s="15"/>
+      <c r="F60" s="16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B60" s="5"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="8"/>
-    </row>
-    <row r="61" spans="1:13" ht="18" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="19" t="s">
+      <c r="B61" s="5"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="8"/>
+    </row>
+    <row r="62" spans="1:13" ht="18" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B61" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="C61" s="17" t="s">
+      <c r="B62" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C62" s="17" t="s">
         <v>44</v>
-      </c>
-      <c r="D61" s="18"/>
-      <c r="E61" s="15">
-        <v>120</v>
-      </c>
-      <c r="G61">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="B62" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="C62" s="17" t="s">
-        <v>46</v>
       </c>
       <c r="D62" s="18"/>
       <c r="E62" s="15">
-        <v>5</v>
+        <v>120</v>
+      </c>
+      <c r="G62">
+        <v>47</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="19" t="s">
-        <v>118</v>
+        <v>45</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>125</v>
+        <v>46</v>
       </c>
       <c r="D63" s="18"/>
       <c r="E63" s="15">
-        <v>0.85</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -2378,697 +2359,692 @@
         <v>113</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D64" s="18"/>
       <c r="E64" s="15">
-        <v>0.224</v>
-      </c>
-      <c r="G64">
-        <v>48</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="19" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D65" s="18"/>
       <c r="E65" s="15">
-        <v>1.45</v>
+        <v>0.224</v>
+      </c>
+      <c r="G65">
+        <v>48</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="19" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D66" s="18"/>
       <c r="E66" s="15">
-        <v>0.5</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="19" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="B67" s="19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="D67" s="18"/>
       <c r="E67" s="15">
-        <v>0.16</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="19" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D68" s="18"/>
       <c r="E68" s="15">
-        <v>0.06</v>
-      </c>
-      <c r="G68">
-        <v>49</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="19" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D69" s="18"/>
       <c r="E69" s="15">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="G69">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="19" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D70" s="18"/>
       <c r="E70" s="15">
         <v>0.01</v>
       </c>
       <c r="G70">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="19" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="C71" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="D71" s="19"/>
+        <v>86</v>
+      </c>
+      <c r="C71" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="D71" s="18"/>
       <c r="E71" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="G71">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="B72" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C72" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="D72" s="19"/>
+      <c r="E72" s="15">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G71">
+      <c r="G72">
         <v>53</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B72" s="5"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="8"/>
-      <c r="G72">
+    <row r="73" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73" s="5"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="8"/>
+      <c r="G73">
         <v>54</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="B73" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="C73" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="D73" s="18"/>
-      <c r="E73" s="15">
-        <v>0.7</v>
-      </c>
-      <c r="G73">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A74" s="19" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C74" s="17" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D74" s="18"/>
       <c r="E74" s="15">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="G74">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="19" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C75" s="17" t="s">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="D75" s="18"/>
       <c r="E75" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="G75">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B76" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C76" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="D76" s="18"/>
+      <c r="E76" s="15">
         <v>2.6840000000000002</v>
       </c>
-      <c r="F75" t="s">
-        <v>122</v>
-      </c>
-      <c r="G75">
+      <c r="F76" t="s">
+        <v>117</v>
+      </c>
+      <c r="G76">
         <v>57</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="5" t="s">
+    <row r="77" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B76" s="5"/>
-      <c r="C76" s="6"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="6"/>
-      <c r="F76" t="s">
-        <v>101</v>
-      </c>
-      <c r="G76">
+      <c r="B77" s="5"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="6"/>
+      <c r="F77" t="s">
+        <v>98</v>
+      </c>
+      <c r="G77">
         <v>58</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="19" t="s">
+    <row r="78" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B77" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="C77" s="17" t="s">
+      <c r="B78" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C78" s="17" t="s">
         <v>49</v>
-      </c>
-      <c r="D77" s="18"/>
-      <c r="E77" s="15">
-        <v>0.01</v>
-      </c>
-      <c r="F77" t="s">
-        <v>106</v>
-      </c>
-      <c r="G77">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B78" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="C78" s="17" t="s">
-        <v>51</v>
       </c>
       <c r="D78" s="18"/>
       <c r="E78" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="F78" t="s">
+        <v>103</v>
+      </c>
+      <c r="G78">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B79" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C79" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D79" s="18"/>
+      <c r="E79" s="15">
         <v>365</v>
       </c>
-      <c r="F78" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="5" t="s">
+      <c r="F79" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B79" s="5"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="8" t="s">
+      <c r="B80" s="5"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G79">
+      <c r="G80">
         <v>60</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="19" t="s">
+    <row r="81" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B80" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="C80" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="D80" s="18">
-        <v>1</v>
-      </c>
-      <c r="E80" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="G80">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="19" t="s">
-        <v>56</v>
-      </c>
       <c r="B81" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="D81" s="18">
         <v>1</v>
       </c>
-      <c r="E81" s="15">
-        <v>207</v>
+      <c r="E81" s="12" t="s">
+        <v>55</v>
       </c>
       <c r="G81">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="19" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="D82" s="18">
         <v>1</v>
       </c>
-      <c r="E82" s="12" t="s">
-        <v>104</v>
+      <c r="E82" s="15">
+        <v>207</v>
       </c>
       <c r="G82">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="19" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="D83" s="18">
         <v>1</v>
       </c>
-      <c r="E83">
-        <v>20</v>
+      <c r="E83" s="12" t="s">
+        <v>101</v>
       </c>
       <c r="G83">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="19"/>
+      <c r="A84" s="19" t="s">
+        <v>57</v>
+      </c>
       <c r="B84" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D84" s="18">
         <v>1</v>
       </c>
-      <c r="E84" s="15">
-        <v>30</v>
+      <c r="E84">
+        <v>20</v>
       </c>
       <c r="G84">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="19"/>
       <c r="B85" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D85" s="18">
         <v>1</v>
       </c>
       <c r="E85" s="15">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="G85">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="19"/>
       <c r="B86" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D86" s="18">
         <v>1</v>
       </c>
       <c r="E86" s="15">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="G86">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="19"/>
       <c r="B87" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C87" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D87" s="18">
         <v>1</v>
       </c>
-      <c r="E87" s="15"/>
+      <c r="E87" s="15">
+        <v>100</v>
+      </c>
       <c r="G87">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="19" t="s">
-        <v>108</v>
-      </c>
+      <c r="A88" s="19"/>
       <c r="B88" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C88" s="17" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D88" s="18">
         <v>1</v>
       </c>
-      <c r="E88" s="15">
-        <v>0</v>
-      </c>
+      <c r="E88" s="15"/>
       <c r="G88">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="19" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C89" s="17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D89" s="18">
         <v>1</v>
       </c>
       <c r="E89" s="15">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G89">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="19" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B90" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C90" s="17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D90" s="18">
         <v>1</v>
       </c>
       <c r="E90" s="15">
-        <v>0.67</v>
+        <v>0.01</v>
       </c>
       <c r="G90">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="19"/>
+      <c r="A91" s="19" t="s">
+        <v>107</v>
+      </c>
       <c r="B91" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C91" s="17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D91" s="18">
         <v>1</v>
       </c>
       <c r="E91" s="15">
-        <v>1</v>
+        <v>0.67</v>
+      </c>
+      <c r="G91">
+        <v>76</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="19"/>
       <c r="B92" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C92" s="17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D92" s="18">
         <v>1</v>
       </c>
-      <c r="E92" s="15"/>
-      <c r="G92">
+      <c r="E92" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="19"/>
+      <c r="B93" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C93" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D93" s="18">
+        <v>1</v>
+      </c>
+      <c r="E93" s="15"/>
+      <c r="G93">
         <v>77</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="B93" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="C93" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="D93" s="18">
-        <v>2</v>
-      </c>
-      <c r="E93" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="G93">
-        <v>78</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B94" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C94" s="17" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="D94" s="18">
         <v>2</v>
       </c>
-      <c r="E94" s="15">
-        <v>365</v>
+      <c r="E94" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="G94">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="19" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="B95" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C95" s="17" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="D95" s="18">
         <v>2</v>
       </c>
-      <c r="E95" s="12" t="s">
-        <v>104</v>
+      <c r="E95" s="15">
+        <v>365</v>
       </c>
       <c r="G95">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="19" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="B96" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C96" s="17" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="D96" s="18">
         <v>2</v>
       </c>
-      <c r="E96" s="15">
-        <v>0</v>
+      <c r="E96" s="12" t="s">
+        <v>101</v>
       </c>
       <c r="G96">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="19"/>
+      <c r="A97" s="19" t="s">
+        <v>60</v>
+      </c>
       <c r="B97" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D97" s="18">
         <v>2</v>
       </c>
       <c r="E97" s="15">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G97">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="19"/>
       <c r="B98" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C98" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D98" s="18">
         <v>2</v>
       </c>
       <c r="E98" s="15">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G98">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="19"/>
       <c r="B99" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C99" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D99" s="18">
         <v>2</v>
       </c>
       <c r="E99" s="15">
-        <v>1.1200000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="G99">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="19"/>
       <c r="B100" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D100" s="18">
         <v>2</v>
       </c>
       <c r="E100" s="15">
-        <v>1.69</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="G100">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="19" t="s">
-        <v>62</v>
-      </c>
+      <c r="A101" s="19"/>
       <c r="B101" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C101" s="17" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D101" s="18">
         <v>2</v>
       </c>
       <c r="E101" s="15">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="G101">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="19" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="B102" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D102" s="18">
         <v>2</v>
@@ -3076,46 +3052,51 @@
       <c r="E102" s="15">
         <v>0</v>
       </c>
+      <c r="G102">
+        <v>86</v>
+      </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="19" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B103" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C103" s="17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D103" s="18">
         <v>2</v>
       </c>
       <c r="E103" s="15">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="19"/>
+      <c r="A104" s="19" t="s">
+        <v>107</v>
+      </c>
       <c r="B104" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C104" s="17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D104" s="18">
         <v>2</v>
       </c>
       <c r="E104" s="15">
-        <v>1</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="19"/>
       <c r="B105" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C105" s="17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D105" s="18">
         <v>2</v>
@@ -3125,10 +3106,19 @@
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="20"/>
-      <c r="B106" s="20"/>
-      <c r="C106" s="21"/>
-      <c r="D106" s="22"/>
+      <c r="A106" s="19"/>
+      <c r="B106" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C106" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D106" s="18">
+        <v>2</v>
+      </c>
+      <c r="E106" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="20"/>
@@ -3786,6 +3776,7 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="20"/>
+      <c r="B216" s="20"/>
       <c r="C216" s="21"/>
       <c r="D216" s="22"/>
     </row>
@@ -3834,20 +3825,25 @@
       <c r="C225" s="21"/>
       <c r="D225" s="22"/>
     </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" s="20"/>
+      <c r="C226" s="21"/>
+      <c r="D226" s="22"/>
+    </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="A56:A59"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A30:A35"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A31:A36"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="A45:A48"/>
   </mergeCells>
   <dataValidations count="13">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E82 E95" xr:uid="{480460A2-D10E-4C2E-BA5E-21462BF2B0CF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E83 E96" xr:uid="{480460A2-D10E-4C2E-BA5E-21462BF2B0CF}">
       <formula1>"year-round, during growing season, during dormant season"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7" xr:uid="{4ED843AD-6506-4488-81F0-2E4530225275}">
@@ -3862,21 +3858,21 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10" xr:uid="{1E9B9295-B0D7-4E7E-BAAC-2CAF2EAF4DB3}">
       <formula1>"annual, perennial"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11 E18" xr:uid="{BB461A63-F461-4A1F-9172-6292BF13D601}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11 E19" xr:uid="{BB461A63-F461-4A1F-9172-6292BF13D601}">
       <formula1>"Annual, Herbaceous perennial, Woody perennial"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10" xr:uid="{AFCFD9FA-4D4F-43C1-901A-71580AB33E9B}">
       <formula1>"C3, C4, CAM"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E12:E16" xr:uid="{60300018-891B-41A8-BAFF-BB2184B38DCC}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E12:E17" xr:uid="{60300018-891B-41A8-BAFF-BB2184B38DCC}">
       <formula1>1</formula1>
       <formula2>366</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E27 E79 E74 E76:E77" xr:uid="{9298BE9C-4866-4FDF-8495-FA9D24E8AD2D}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E28 E80 E75 E77:E78" xr:uid="{9298BE9C-4866-4FDF-8495-FA9D24E8AD2D}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E78" xr:uid="{AC096415-C5D5-454E-899E-A32D627F8EBF}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E79" xr:uid="{AC096415-C5D5-454E-899E-A32D627F8EBF}">
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6" xr:uid="{DB50D8EF-3992-4907-92EC-8CAD86B104C4}">
@@ -3896,10 +3892,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59430052-850A-4E52-8B29-0C7825B169C3}">
-  <dimension ref="A1:M225"/>
+  <dimension ref="A1:M226"/>
   <sheetViews>
-    <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3917,7 +3913,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -3950,14 +3946,14 @@
         <v>6</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="12" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -3968,10 +3964,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="12" t="s">
@@ -3986,7 +3982,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>12</v>
@@ -4004,7 +4000,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>15</v>
@@ -4019,17 +4015,17 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="12" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="G7">
         <v>6</v>
@@ -4037,17 +4033,17 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="12" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="G8">
         <v>7</v>
@@ -4055,17 +4051,17 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>68</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>69</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G9">
         <v>8</v>
@@ -4076,14 +4072,14 @@
         <v>17</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G10">
         <v>9</v>
@@ -4091,7 +4087,7 @@
     </row>
     <row r="11" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
@@ -4107,7 +4103,7 @@
         <v>19</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>20</v>
@@ -4125,7 +4121,7 @@
         <v>21</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>22</v>
@@ -4138,934 +4134,934 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
-        <v>78</v>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>148</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="D14" s="18"/>
+        <v>89</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D14" s="11"/>
       <c r="E14" s="15">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>50</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="15">
-        <v>116</v>
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>23</v>
+      <c r="A16" s="19" t="s">
+        <v>130</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="15">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="18"/>
+      <c r="E17" s="15">
         <v>305</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="15">
         <v>3000</v>
       </c>
-      <c r="G17">
+      <c r="G18">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
+    <row r="19" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="8"/>
-      <c r="G18">
+      <c r="B19" s="5"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="8"/>
+      <c r="G19">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="31" t="s">
+    <row r="20" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="E19" s="15">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G19">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="31"/>
       <c r="B20" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E20" s="15">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G20">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="30"/>
+      <c r="B21" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E21" s="15">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G21">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="31"/>
-      <c r="B21" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="E21" s="15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="30"/>
+      <c r="B22" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" s="15">
         <v>0.03</v>
       </c>
-      <c r="G21">
+      <c r="G22">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
-      <c r="B22" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="E22" s="15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="25"/>
+      <c r="B23" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" s="15">
         <v>0.01</v>
       </c>
-      <c r="G22">
+      <c r="G23">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="31" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="E23" s="15">
-        <v>1.444</v>
-      </c>
-      <c r="G23">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="31"/>
       <c r="B24" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>27</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E24" s="15">
-        <v>1.5129999999999999</v>
+        <v>1.444</v>
       </c>
       <c r="G24">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="31"/>
+      <c r="A25" s="30"/>
       <c r="B25" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>27</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E25" s="15">
-        <v>1.4630000000000001</v>
+        <v>1.5129999999999999</v>
       </c>
       <c r="G25">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="31"/>
+      <c r="A26" s="30"/>
       <c r="B26" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>27</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E26" s="15">
+        <v>1.4630000000000001</v>
+      </c>
+      <c r="G26">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="30"/>
+      <c r="B27" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" s="15">
         <v>1.4139999999999999</v>
       </c>
-      <c r="G26">
+      <c r="G27">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C27" s="10" t="s">
+      <c r="B28" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="10" t="s">
         <v>29</v>
-      </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="15">
-        <v>0.51</v>
-      </c>
-      <c r="G27">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="32.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>31</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="15">
-        <v>100</v>
-      </c>
-      <c r="F28" t="s">
-        <v>64</v>
+        <v>0.51</v>
       </c>
       <c r="G28">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="32.25" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="15">
+        <v>100</v>
+      </c>
+      <c r="F29" t="s">
+        <v>63</v>
+      </c>
+      <c r="G29">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="11"/>
+      <c r="E30" s="15">
         <v>3.7199999999999997E-2</v>
       </c>
-      <c r="G29">
+      <c r="G30">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="32" t="s">
+    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D30" s="11" t="s">
+      <c r="B31" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E30" s="15"/>
-      <c r="F30" s="16" t="s">
+      <c r="E31" s="15"/>
+      <c r="F31" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="G30">
+      <c r="G31">
         <v>27</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H31" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="32"/>
-      <c r="B31" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D31" s="11" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="31"/>
+      <c r="B32" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" s="11" t="s">
         <v>38</v>
-      </c>
-      <c r="E31" s="15"/>
-      <c r="G31">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="32"/>
-      <c r="B32" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>39</v>
       </c>
       <c r="E32" s="15"/>
       <c r="G32">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="32"/>
+      <c r="A33" s="31"/>
       <c r="B33" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E33" s="15"/>
       <c r="G33">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="32"/>
+      <c r="A34" s="31"/>
       <c r="B34" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E34" s="15"/>
       <c r="G34">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="32"/>
+      <c r="A35" s="31"/>
       <c r="B35" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E35" s="15"/>
       <c r="G35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="31"/>
+      <c r="B36" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" s="15"/>
+      <c r="G36">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="30" t="s">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D36" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="E36" s="15">
-        <v>0.01</v>
-      </c>
-      <c r="G36">
-        <v>33</v>
-      </c>
-      <c r="J36">
-        <f>E38+E37</f>
-        <v>0.7</v>
-      </c>
-      <c r="K36">
-        <f>LOG10(J36/1000)</f>
-        <v>-3.1549019599857431</v>
-      </c>
-      <c r="L36">
-        <f>J36/E67*E63</f>
-        <v>525</v>
-      </c>
-      <c r="M36">
-        <f>LOG10(L36/1000)</f>
-        <v>-0.27984069659404309</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="30"/>
       <c r="B37" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C37" s="17" t="s">
         <v>41</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E37" s="15">
-        <v>0.2</v>
+        <v>0.01</v>
       </c>
       <c r="G37">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="J37">
+        <f>E39+E38</f>
+        <v>0.7</v>
+      </c>
+      <c r="K37">
+        <f>LOG10(J37/1000)</f>
+        <v>-3.1549019599857431</v>
+      </c>
+      <c r="L37">
+        <f>J37/E68*E64</f>
+        <v>525</v>
+      </c>
+      <c r="M37">
+        <f>LOG10(L37/1000)</f>
+        <v>-0.27984069659404309</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="30"/>
+      <c r="A38" s="29"/>
       <c r="B38" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C38" s="17" t="s">
         <v>41</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E38" s="15">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G38">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="26"/>
+      <c r="A39" s="29"/>
       <c r="B39" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C39" s="17" t="s">
         <v>41</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E39" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="G39">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="26"/>
+      <c r="B40" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E40" s="15">
         <v>0</v>
       </c>
-      <c r="G39">
+      <c r="G40">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="30" t="s">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="B40" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D40" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="E40" s="15">
+      <c r="D41" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="E41" s="15">
         <v>10.9</v>
       </c>
-      <c r="G40">
+      <c r="G41">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="30"/>
-      <c r="B41" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D41" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="E41" s="15">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="29"/>
+      <c r="B42" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E42" s="15">
         <v>6.68</v>
       </c>
-      <c r="G41">
+      <c r="G42">
         <v>39</v>
       </c>
-      <c r="J41">
-        <f>E42+E41</f>
+      <c r="J42">
+        <f>E43+E42</f>
         <v>16.7</v>
       </c>
-      <c r="K41">
-        <f>LOG10(J41)</f>
+      <c r="K42">
+        <f>LOG10(J42)</f>
         <v>1.2227164711475833</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="30"/>
-      <c r="B42" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C42" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D42" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="E42" s="15">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="29"/>
+      <c r="B43" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="E43" s="15">
         <v>10.02</v>
       </c>
-      <c r="G42">
+      <c r="G43">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="30"/>
-      <c r="B43" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C43" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D43" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="E43" s="15">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="29"/>
+      <c r="B44" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D44" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E44" s="15">
         <v>18</v>
       </c>
-      <c r="G43">
+      <c r="G44">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="D44" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E44" s="15"/>
-      <c r="F44" s="16" t="s">
-        <v>149</v>
-      </c>
-    </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="30"/>
+      <c r="A45" s="29" t="s">
+        <v>142</v>
+      </c>
       <c r="B45" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E45" s="15"/>
       <c r="F45" s="16" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="30"/>
+      <c r="A46" s="29"/>
       <c r="B46" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E46" s="15"/>
       <c r="F46" s="16" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="30"/>
+      <c r="A47" s="29"/>
       <c r="B47" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E47" s="15"/>
       <c r="F47" s="16" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="30" t="s">
-        <v>151</v>
-      </c>
+      <c r="A48" s="29"/>
       <c r="B48" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="E48" s="15"/>
       <c r="F48" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="I48">
-        <f>E63/E64</f>
-        <v>888.8888888888888</v>
-      </c>
-      <c r="J48">
-        <f>E63/E64</f>
-        <v>888.8888888888888</v>
-      </c>
-      <c r="K48">
-        <f>LOG10(J48)</f>
-        <v>2.9488474775526186</v>
-      </c>
-      <c r="M48">
-        <f>LOG10((E41+E42)/1000)</f>
-        <v>-1.7772835288524167</v>
+        <v>141</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="30"/>
+      <c r="A49" s="29" t="s">
+        <v>143</v>
+      </c>
       <c r="B49" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E49" s="15"/>
       <c r="F49" s="16" t="s">
-        <v>149</v>
+        <v>141</v>
+      </c>
+      <c r="I49">
+        <f>E64/E65</f>
+        <v>888.8888888888888</v>
       </c>
       <c r="J49">
-        <f>E68/E67</f>
-        <v>0.375</v>
+        <f>E64/E65</f>
+        <v>888.8888888888888</v>
       </c>
       <c r="K49">
         <f>LOG10(J49)</f>
-        <v>-0.42596873227228116</v>
+        <v>2.9488474775526186</v>
       </c>
       <c r="M49">
-        <f>LOG10((E37+E38)/1000)</f>
-        <v>-3.1549019599857431</v>
+        <f>LOG10((E42+E43)/1000)</f>
+        <v>-1.7772835288524167</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="30"/>
+      <c r="A50" s="29"/>
       <c r="B50" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E50" s="15"/>
       <c r="F50" s="16" t="s">
-        <v>149</v>
+        <v>141</v>
+      </c>
+      <c r="J50">
+        <f>E69/E68</f>
+        <v>0.375</v>
+      </c>
+      <c r="K50">
+        <f>LOG10(J50)</f>
+        <v>-0.42596873227228116</v>
+      </c>
+      <c r="M50">
+        <f>LOG10((E38+E39)/1000)</f>
+        <v>-3.1549019599857431</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="30"/>
+      <c r="A51" s="29"/>
       <c r="B51" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E51" s="15"/>
       <c r="F51" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="J51">
-        <f>(E41+E42)/1000/(E63*PI()/4*E64^2)</f>
-        <v>9.7224967522072329E-3</v>
+        <v>141</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="30" t="s">
-        <v>152</v>
-      </c>
+      <c r="A52" s="29"/>
       <c r="B52" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="E52" s="15"/>
       <c r="F52" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="I52">
-        <f>E63/E68</f>
-        <v>2000</v>
+        <v>141</v>
       </c>
       <c r="J52">
-        <f>(E37+E38)/1000/(E67*PI()/4*E68^2)</f>
-        <v>1.5473397245045379</v>
+        <f>(E42+E43)/1000/(E64*PI()/4*E65^2)</f>
+        <v>9.7224967522072329E-3</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="30"/>
+      <c r="A53" s="29" t="s">
+        <v>144</v>
+      </c>
       <c r="B53" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E53" s="15"/>
       <c r="F53" s="16" t="s">
-        <v>149</v>
+        <v>141</v>
+      </c>
+      <c r="I53">
+        <f>E64/E69</f>
+        <v>2000</v>
+      </c>
+      <c r="J53">
+        <f>(E38+E39)/1000/(E68*PI()/4*E69^2)</f>
+        <v>1.5473397245045379</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="30"/>
+      <c r="A54" s="29"/>
       <c r="B54" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E54" s="15"/>
       <c r="F54" s="16" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="30"/>
+      <c r="A55" s="29"/>
       <c r="B55" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E55" s="15"/>
       <c r="F55" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="K55">
-        <f>(K48-K49)/K49</f>
-        <v>-7.9226852915291017</v>
-      </c>
-      <c r="M55">
-        <f>(M49-M48)/M49</f>
-        <v>0.43665966442252035</v>
+        <v>141</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" s="30" t="s">
-        <v>153</v>
-      </c>
+      <c r="A56" s="29"/>
       <c r="B56" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="E56" s="15"/>
       <c r="F56" s="16" t="s">
-        <v>149</v>
+        <v>141</v>
+      </c>
+      <c r="K56">
+        <f>(K49-K50)/K50</f>
+        <v>-7.9226852915291017</v>
+      </c>
+      <c r="M56">
+        <f>(M50-M49)/M50</f>
+        <v>0.43665966442252035</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" s="30"/>
+      <c r="A57" s="29" t="s">
+        <v>145</v>
+      </c>
       <c r="B57" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E57" s="15"/>
       <c r="F57" s="16" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" s="30"/>
+      <c r="A58" s="29"/>
       <c r="B58" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E58" s="15"/>
       <c r="F58" s="16" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" s="30"/>
+      <c r="A59" s="29"/>
       <c r="B59" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E59" s="15"/>
       <c r="F59" s="16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" s="29"/>
+      <c r="B60" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E60" s="15"/>
+      <c r="F60" s="16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B60" s="5"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="8"/>
-    </row>
-    <row r="61" spans="1:13" ht="18" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="19" t="s">
+      <c r="B61" s="5"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="8"/>
+    </row>
+    <row r="62" spans="1:13" ht="18" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B61" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="C61" s="17" t="s">
+      <c r="B62" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C62" s="17" t="s">
         <v>44</v>
-      </c>
-      <c r="D61" s="18"/>
-      <c r="E61" s="15">
-        <v>120</v>
-      </c>
-      <c r="G61">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="B62" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="C62" s="17" t="s">
-        <v>46</v>
       </c>
       <c r="D62" s="18"/>
       <c r="E62" s="15">
-        <v>9</v>
+        <v>120</v>
+      </c>
+      <c r="G62">
+        <v>47</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="19" t="s">
-        <v>118</v>
+        <v>45</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>125</v>
+        <v>46</v>
       </c>
       <c r="D63" s="18"/>
       <c r="E63" s="15">
-        <v>120</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -5073,698 +5069,693 @@
         <v>113</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D64" s="18"/>
       <c r="E64" s="15">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B65" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C65" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="D65" s="18"/>
+      <c r="E65" s="15">
         <f>0.126+3*0.003</f>
         <v>0.13500000000000001</v>
       </c>
-      <c r="G64">
+      <c r="G65">
         <v>48</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="B65" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="C65" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="D65" s="18"/>
-      <c r="E65" s="15">
-        <v>1.45</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="19" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D66" s="18"/>
       <c r="E66" s="15">
-        <v>0.5</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="19" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="B67" s="19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="D67" s="18"/>
       <c r="E67" s="15">
-        <v>0.16</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="19" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D68" s="18"/>
       <c r="E68" s="15">
-        <v>0.06</v>
-      </c>
-      <c r="G68">
-        <v>49</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="19" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D69" s="18"/>
       <c r="E69" s="15">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="G69">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="19" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D70" s="18"/>
       <c r="E70" s="15">
         <v>0.01</v>
       </c>
       <c r="G70">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="19" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="C71" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="D71" s="19"/>
+        <v>86</v>
+      </c>
+      <c r="C71" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="D71" s="18"/>
       <c r="E71" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="G71">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="B72" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C72" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="D72" s="19"/>
+      <c r="E72" s="15">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F71" t="s">
-        <v>122</v>
-      </c>
-      <c r="G71">
+      <c r="F72" t="s">
+        <v>117</v>
+      </c>
+      <c r="G72">
         <v>53</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B72" s="5"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="8"/>
-      <c r="G72">
+    <row r="73" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73" s="5"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="8"/>
+      <c r="G73">
         <v>54</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="B73" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="C73" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="D73" s="18"/>
-      <c r="E73" s="15">
-        <v>0.93600000000000005</v>
-      </c>
-      <c r="G73">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A74" s="19" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C74" s="17" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D74" s="18"/>
       <c r="E74" s="15">
-        <v>0.5</v>
+        <v>0.93600000000000005</v>
       </c>
       <c r="G74">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="19" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C75" s="17" t="s">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="D75" s="18"/>
       <c r="E75" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="G75">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B76" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C76" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="D76" s="18"/>
+      <c r="E76" s="15">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F75" s="8" t="s">
+      <c r="F76" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G75">
+      <c r="G76">
         <v>57</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="5" t="s">
+    <row r="77" spans="1:7" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B76" s="5"/>
-      <c r="C76" s="6"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="6"/>
-      <c r="F76" t="s">
-        <v>101</v>
-      </c>
-      <c r="G76">
+      <c r="B77" s="5"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="6"/>
+      <c r="F77" t="s">
+        <v>98</v>
+      </c>
+      <c r="G77">
         <v>58</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="19" t="s">
+    <row r="78" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B77" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="C77" s="17" t="s">
+      <c r="B78" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C78" s="17" t="s">
         <v>49</v>
-      </c>
-      <c r="D77" s="18"/>
-      <c r="E77" s="15">
-        <v>0.01</v>
-      </c>
-      <c r="F77" t="s">
-        <v>106</v>
-      </c>
-      <c r="G77">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B78" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="C78" s="17" t="s">
-        <v>51</v>
       </c>
       <c r="D78" s="18"/>
       <c r="E78" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="F78" t="s">
+        <v>103</v>
+      </c>
+      <c r="G78">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B79" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C79" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D79" s="18"/>
+      <c r="E79" s="15">
         <v>365</v>
       </c>
-      <c r="F78" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="5" t="s">
+      <c r="F79" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B79" s="5"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="6"/>
-      <c r="G79">
+      <c r="B80" s="5"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="6"/>
+      <c r="G80">
         <v>60</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="19" t="s">
+    <row r="81" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B80" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="C80" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="D80" s="18">
-        <v>1</v>
-      </c>
-      <c r="E80" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="G80">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="19" t="s">
-        <v>56</v>
-      </c>
       <c r="B81" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="D81" s="18">
         <v>1</v>
       </c>
-      <c r="E81" s="15">
-        <v>207</v>
+      <c r="E81" s="12" t="s">
+        <v>55</v>
       </c>
       <c r="G81">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="19" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="D82" s="18">
         <v>1</v>
       </c>
-      <c r="E82" s="12" t="s">
-        <v>104</v>
+      <c r="E82" s="15">
+        <v>207</v>
       </c>
       <c r="G82">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="19" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="D83" s="18">
         <v>1</v>
       </c>
-      <c r="E83">
-        <v>20</v>
+      <c r="E83" s="12" t="s">
+        <v>101</v>
       </c>
       <c r="G83">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="19"/>
+      <c r="A84" s="19" t="s">
+        <v>57</v>
+      </c>
       <c r="B84" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D84" s="18">
         <v>1</v>
       </c>
-      <c r="E84" s="15">
-        <v>30</v>
+      <c r="E84">
+        <v>20</v>
       </c>
       <c r="G84">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="19"/>
       <c r="B85" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D85" s="18">
         <v>1</v>
       </c>
       <c r="E85" s="15">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="G85">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="19"/>
       <c r="B86" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D86" s="18">
         <v>1</v>
       </c>
       <c r="E86" s="15">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="G86">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="19"/>
       <c r="B87" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C87" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D87" s="18">
         <v>1</v>
       </c>
-      <c r="E87" s="15"/>
+      <c r="E87" s="15">
+        <v>100</v>
+      </c>
       <c r="G87">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="19" t="s">
-        <v>108</v>
-      </c>
+      <c r="A88" s="19"/>
       <c r="B88" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C88" s="17" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D88" s="18">
         <v>1</v>
       </c>
-      <c r="E88" s="15">
-        <v>0</v>
-      </c>
+      <c r="E88" s="15"/>
       <c r="G88">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="19" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C89" s="17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D89" s="18">
         <v>1</v>
       </c>
       <c r="E89" s="15">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G89">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="19" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B90" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C90" s="17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D90" s="18">
         <v>1</v>
       </c>
       <c r="E90" s="15">
-        <v>0.67</v>
+        <v>0.01</v>
       </c>
       <c r="G90">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="19"/>
+      <c r="A91" s="19" t="s">
+        <v>107</v>
+      </c>
       <c r="B91" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C91" s="17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D91" s="18">
         <v>1</v>
       </c>
       <c r="E91" s="15">
-        <v>1</v>
+        <v>0.67</v>
+      </c>
+      <c r="G91">
+        <v>76</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="19"/>
       <c r="B92" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C92" s="17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D92" s="18">
         <v>1</v>
       </c>
-      <c r="E92" s="15"/>
-      <c r="G92">
+      <c r="E92" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="19"/>
+      <c r="B93" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C93" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D93" s="18">
+        <v>1</v>
+      </c>
+      <c r="E93" s="15"/>
+      <c r="G93">
         <v>77</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="B93" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="C93" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="D93" s="18">
-        <v>2</v>
-      </c>
-      <c r="E93" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="G93">
-        <v>78</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B94" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C94" s="17" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="D94" s="18">
         <v>2</v>
       </c>
-      <c r="E94" s="15">
-        <v>365</v>
+      <c r="E94" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="G94">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="19" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="B95" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C95" s="17" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="D95" s="18">
         <v>2</v>
       </c>
-      <c r="E95" s="12" t="s">
-        <v>104</v>
+      <c r="E95" s="15">
+        <v>365</v>
       </c>
       <c r="G95">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="19" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="B96" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C96" s="17" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="D96" s="18">
         <v>2</v>
       </c>
-      <c r="E96" s="15">
-        <v>0</v>
+      <c r="E96" s="12" t="s">
+        <v>101</v>
       </c>
       <c r="G96">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="19"/>
+      <c r="A97" s="19" t="s">
+        <v>60</v>
+      </c>
       <c r="B97" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D97" s="18">
         <v>2</v>
       </c>
       <c r="E97" s="15">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G97">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="19"/>
       <c r="B98" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C98" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D98" s="18">
         <v>2</v>
       </c>
       <c r="E98" s="15">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G98">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="19"/>
       <c r="B99" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C99" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D99" s="18">
         <v>2</v>
       </c>
       <c r="E99" s="15">
-        <v>1.1200000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="G99">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="19"/>
       <c r="B100" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D100" s="18">
         <v>2</v>
       </c>
       <c r="E100" s="15">
-        <v>1.69</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="G100">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="19" t="s">
-        <v>62</v>
-      </c>
+      <c r="A101" s="19"/>
       <c r="B101" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C101" s="17" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D101" s="18">
         <v>2</v>
       </c>
       <c r="E101" s="15">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="G101">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="19" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="B102" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D102" s="18">
         <v>2</v>
@@ -5772,46 +5763,51 @@
       <c r="E102" s="15">
         <v>0</v>
       </c>
+      <c r="G102">
+        <v>86</v>
+      </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="19" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B103" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C103" s="17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D103" s="18">
         <v>2</v>
       </c>
       <c r="E103" s="15">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="19"/>
+      <c r="A104" s="19" t="s">
+        <v>107</v>
+      </c>
       <c r="B104" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C104" s="17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D104" s="18">
         <v>2</v>
       </c>
       <c r="E104" s="15">
-        <v>1</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="19"/>
       <c r="B105" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C105" s="17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D105" s="18">
         <v>2</v>
@@ -5821,10 +5817,19 @@
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="20"/>
-      <c r="B106" s="20"/>
-      <c r="C106" s="21"/>
-      <c r="D106" s="22"/>
+      <c r="A106" s="19"/>
+      <c r="B106" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C106" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D106" s="18">
+        <v>2</v>
+      </c>
+      <c r="E106" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="20"/>
@@ -6482,6 +6487,7 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="20"/>
+      <c r="B216" s="20"/>
       <c r="C216" s="21"/>
       <c r="D216" s="22"/>
     </row>
@@ -6530,17 +6536,22 @@
       <c r="C225" s="21"/>
       <c r="D225" s="22"/>
     </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" s="20"/>
+      <c r="C226" s="21"/>
+      <c r="D226" s="22"/>
+    </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A56:A59"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A30:A35"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A31:A36"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="A37:A39"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="13">
@@ -6553,21 +6564,21 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6" xr:uid="{FCAB33B4-E22D-416A-9EE8-1B6629F4B7A9}">
       <formula1>"angiosperm, gymnosperm"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E78" xr:uid="{2A9331BB-EEBF-40CD-B47D-E4013CB2D0AD}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E79" xr:uid="{2A9331BB-EEBF-40CD-B47D-E4013CB2D0AD}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E27 E79 E74 E76:E77" xr:uid="{C20F82BC-B9F3-4514-8D12-0BF659884D61}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E28 E80 E75 E77:E78" xr:uid="{C20F82BC-B9F3-4514-8D12-0BF659884D61}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E12:E16" xr:uid="{89511D6B-7806-4594-AA02-B0D66F3A6A50}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E12:E17" xr:uid="{89511D6B-7806-4594-AA02-B0D66F3A6A50}">
       <formula1>1</formula1>
       <formula2>366</formula2>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10" xr:uid="{5620C1FF-B28B-4556-ADEF-5FA98FE67CB9}">
       <formula1>"C3, C4, CAM"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11 E18" xr:uid="{D43B937F-2CE8-47D9-A978-7D336015DF11}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11 E19" xr:uid="{D43B937F-2CE8-47D9-A978-7D336015DF11}">
       <formula1>"Annual, Herbaceous perennial, Woody perennial"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10" xr:uid="{6E5E4A37-6A5B-480B-8E8F-63973FC4A36F}">
@@ -6582,2687 +6593,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7" xr:uid="{793E17DF-C558-4DAF-B608-9E20297CD619}">
       <formula1>"annual, perennial evergreen, perennial deciduous"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E82 E95" xr:uid="{C614F1BE-BCDD-4E7E-8FB4-A3D677A1BB44}">
-      <formula1>"year-round, during growing season, during dormant season"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A5B2ED1-E60A-481E-A183-520033C5AF7F}">
-  <dimension ref="A1:N225"/>
-  <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B56" sqref="A56:XFD59"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="37.42578125" style="23" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" style="23" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" style="24" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" customWidth="1"/>
-    <col min="6" max="6" width="64.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="G7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="G8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="G9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="G10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="8"/>
-      <c r="G11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="15">
-        <v>144</v>
-      </c>
-      <c r="G12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="15">
-        <v>305</v>
-      </c>
-      <c r="G13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="15">
-        <v>180</v>
-      </c>
-      <c r="G14">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="15">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="15">
-        <v>273</v>
-      </c>
-      <c r="G16">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="8"/>
-      <c r="G17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="E18" s="15">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G18">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="31"/>
-      <c r="B19" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="E19" s="15">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G19">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="31"/>
-      <c r="B20" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="E20" s="15">
-        <v>0.03</v>
-      </c>
-      <c r="G20">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="31"/>
-      <c r="B21" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="E21" s="15">
-        <v>0.01</v>
-      </c>
-      <c r="G21">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="E22" s="15">
-        <v>1.444</v>
-      </c>
-      <c r="G22">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="31"/>
-      <c r="B23" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="E23" s="15">
-        <v>1.5129999999999999</v>
-      </c>
-      <c r="G23">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="31"/>
-      <c r="B24" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="E24" s="15">
-        <v>1.4630000000000001</v>
-      </c>
-      <c r="G24">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="31"/>
-      <c r="B25" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="E25" s="15">
-        <v>1.4139999999999999</v>
-      </c>
-      <c r="G25">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="15">
-        <v>0.48</v>
-      </c>
-      <c r="G26">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="32.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="15">
-        <v>100</v>
-      </c>
-      <c r="F27" t="s">
-        <v>64</v>
-      </c>
-      <c r="G27">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" s="11"/>
-      <c r="E28" s="15">
-        <v>0.05</v>
-      </c>
-      <c r="G28">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="8"/>
-    </row>
-    <row r="30" spans="1:8" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E30" s="15"/>
-      <c r="F30" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="G30">
-        <v>27</v>
-      </c>
-      <c r="H30" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="32"/>
-      <c r="B31" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E31" s="15"/>
-      <c r="F31" s="33"/>
-      <c r="G31">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="32"/>
-      <c r="B32" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E32" s="15"/>
-      <c r="F32" s="33"/>
-      <c r="G32">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="32"/>
-      <c r="B33" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E33" s="15"/>
-      <c r="F33" s="33"/>
-      <c r="G33">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="32"/>
-      <c r="B34" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E34" s="15"/>
-      <c r="F34" s="33"/>
-      <c r="G34">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="32"/>
-      <c r="B35" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E35" s="15"/>
-      <c r="F35" s="33"/>
-      <c r="G35">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D36" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="E36" s="15">
-        <v>0.01</v>
-      </c>
-      <c r="G36">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="30"/>
-      <c r="B37" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D37" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="E37" s="27">
-        <f>E38/0.27*0.2</f>
-        <v>2.2222222222222223E-2</v>
-      </c>
-      <c r="G37">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="30"/>
-      <c r="B38" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="E38" s="15">
-        <v>0.03</v>
-      </c>
-      <c r="G38">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="30"/>
-      <c r="B39" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D39" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="E39" s="15">
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D40" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="E40" s="15">
-        <v>4.3</v>
-      </c>
-      <c r="G40">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="30"/>
-      <c r="B41" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D41" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="E41" s="15">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="G41">
-        <v>39</v>
-      </c>
-      <c r="J41">
-        <f>E41+E42</f>
-        <v>9.6</v>
-      </c>
-      <c r="K41">
-        <f>LOG10(J41/1000)</f>
-        <v>-2.0177287669604316</v>
-      </c>
-      <c r="M41">
-        <f>E63/E64</f>
-        <v>2.5</v>
-      </c>
-      <c r="N41">
-        <f>LOG10(M41)</f>
-        <v>0.3979400086720376</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="30"/>
-      <c r="B42" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C42" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D42" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="E42" s="15">
-        <v>5.5</v>
-      </c>
-      <c r="G42">
-        <v>40</v>
-      </c>
-      <c r="J42">
-        <f>(E37+E38)/E67*E63</f>
-        <v>0.52222222222222237</v>
-      </c>
-      <c r="K42">
-        <f>LOG10(J42/1000)</f>
-        <v>-3.2821446515036072</v>
-      </c>
-      <c r="M42">
-        <f>E63/E68</f>
-        <v>138.2930051648863</v>
-      </c>
-      <c r="N42">
-        <f>LOG10(M42)</f>
-        <v>2.1408002141287135</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="30"/>
-      <c r="B43" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C43" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D43" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="E43" s="15">
-        <v>4</v>
-      </c>
-      <c r="G43">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="D44" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E44" s="15"/>
-      <c r="F44" s="16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="30"/>
-      <c r="B45" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C45" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="D45" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="E45" s="15"/>
-      <c r="F45" s="16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="30"/>
-      <c r="B46" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C46" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="D46" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="E46" s="15"/>
-      <c r="F46" s="16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="30"/>
-      <c r="B47" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C47" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="D47" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="E47" s="15"/>
-      <c r="F47" s="16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="30" t="s">
-        <v>151</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C48" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="D48" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E48" s="15"/>
-      <c r="F48" s="16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="30"/>
-      <c r="B49" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C49" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="D49" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="E49" s="15"/>
-      <c r="F49" s="16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="30"/>
-      <c r="B50" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C50" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="D50" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="E50" s="15"/>
-      <c r="F50" s="16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="30"/>
-      <c r="B51" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C51" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="D51" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="E51" s="15"/>
-      <c r="F51" s="16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C52" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D52" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E52" s="15"/>
-      <c r="F52" s="16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="30"/>
-      <c r="B53" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C53" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D53" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="E53" s="15"/>
-      <c r="F53" s="16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="30"/>
-      <c r="B54" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C54" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D54" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="E54" s="15"/>
-      <c r="F54" s="16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="30"/>
-      <c r="B55" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C55" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D55" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="E55" s="15"/>
-      <c r="F55" s="16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="30" t="s">
-        <v>153</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C56" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="D56" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E56" s="15"/>
-      <c r="F56" s="16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="30"/>
-      <c r="B57" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C57" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="D57" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="E57" s="15"/>
-      <c r="F57" s="16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="30"/>
-      <c r="B58" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C58" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="D58" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="E58" s="15"/>
-      <c r="F58" s="16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="30"/>
-      <c r="B59" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C59" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="D59" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="E59" s="15"/>
-      <c r="F59" s="16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B60" s="5"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="8"/>
-      <c r="J60">
-        <f>PI()/4*E64^2*E63</f>
-        <v>5.3014376029327764E-2</v>
-      </c>
-      <c r="K60">
-        <f>J41/1000/J60</f>
-        <v>0.18108295747344533</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" ht="18" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B61" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="C61" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D61" s="18"/>
-      <c r="E61" s="15">
-        <v>18</v>
-      </c>
-      <c r="I61">
-        <f>E63/E68</f>
-        <v>138.2930051648863</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="B62" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="C62" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D62" s="18"/>
-      <c r="E62" s="15">
-        <v>10</v>
-      </c>
-      <c r="I62">
-        <f>E63/E64</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="B63" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="C63" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="D63" s="18"/>
-      <c r="E63" s="15">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="B64" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="C64" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="D64" s="18"/>
-      <c r="E64" s="15">
-        <v>0.3</v>
-      </c>
-      <c r="G64">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="B65" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="C65" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="D65" s="18"/>
-      <c r="E65" s="15">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="B66" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="C66" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="D66" s="18"/>
-      <c r="E66" s="15">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="B67" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="C67" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="D67" s="18"/>
-      <c r="E67" s="15">
-        <f>E63/10</f>
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="K67" t="e">
-        <f>(K60-K61)/K61</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M67" t="e">
-        <f>(M61-M60)/M61</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="B68" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="C68" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="D68" s="18"/>
-      <c r="E68" s="27">
-        <f>SQRT(0.231/100/100*4/PI())</f>
-        <v>5.423267786434878E-3</v>
-      </c>
-      <c r="G68">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="B69" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="C69" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="D69" s="18"/>
-      <c r="E69" s="15">
-        <v>0.02</v>
-      </c>
-      <c r="G69">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="B70" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="C70" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="D70" s="18"/>
-      <c r="E70" s="15">
-        <v>0.01</v>
-      </c>
-      <c r="G70">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="B71" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="C71" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="D71" s="19"/>
-      <c r="E71" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F71" t="s">
-        <v>122</v>
-      </c>
-      <c r="G71">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B72" s="5"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="8"/>
-      <c r="G72">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="B73" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="C73" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="D73" s="18"/>
-      <c r="E73" s="15">
-        <v>0.4</v>
-      </c>
-      <c r="G73">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="B74" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="C74" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="D74" s="18"/>
-      <c r="E74" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="G74">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A75" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="B75" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="C75" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="D75" s="18"/>
-      <c r="E75" s="15">
-        <v>1.2</v>
-      </c>
-      <c r="G75">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B76" s="5"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G76">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="B77" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="C77" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D77" s="18"/>
-      <c r="E77" s="15">
-        <v>0.01</v>
-      </c>
-      <c r="G77">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B78" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="C78" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D78" s="18"/>
-      <c r="E78" s="15">
-        <v>365</v>
-      </c>
-      <c r="F78" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B79" s="5"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="8"/>
-      <c r="G79">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B80" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="C80" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="D80" s="18">
-        <v>1</v>
-      </c>
-      <c r="E80" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="G80">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B81" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="C81" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D81" s="18">
-        <v>1</v>
-      </c>
-      <c r="E81" s="15">
-        <v>207</v>
-      </c>
-      <c r="G81">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="B82" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="C82" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="D82" s="18">
-        <v>1</v>
-      </c>
-      <c r="E82" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="G82">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B83" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="C83" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="D83" s="18">
-        <v>1</v>
-      </c>
-      <c r="E83" s="15">
-        <v>30</v>
-      </c>
-      <c r="G83">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="19"/>
-      <c r="B84" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="C84" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="D84" s="18">
-        <v>1</v>
-      </c>
-      <c r="E84" s="15">
-        <v>40</v>
-      </c>
-      <c r="G84">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="19"/>
-      <c r="B85" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="C85" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="D85" s="18">
-        <v>1</v>
-      </c>
-      <c r="E85" s="15">
-        <v>50</v>
-      </c>
-      <c r="G85">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="19"/>
-      <c r="B86" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="C86" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="D86" s="18">
-        <v>1</v>
-      </c>
-      <c r="E86" s="15">
-        <v>55</v>
-      </c>
-      <c r="G86">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="19"/>
-      <c r="B87" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="C87" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="D87" s="18">
-        <v>1</v>
-      </c>
-      <c r="E87" s="15"/>
-      <c r="G87">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="B88" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="C88" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="D88" s="18">
-        <v>1</v>
-      </c>
-      <c r="E88" s="15">
-        <v>0.01</v>
-      </c>
-      <c r="G88">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="19"/>
-      <c r="B89" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="C89" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="D89" s="18">
-        <v>1</v>
-      </c>
-      <c r="E89" s="15">
-        <v>0.25</v>
-      </c>
-      <c r="G89">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="19"/>
-      <c r="B90" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="C90" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="D90" s="18">
-        <v>1</v>
-      </c>
-      <c r="E90" s="15">
-        <v>0.67</v>
-      </c>
-      <c r="G90">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="19"/>
-      <c r="B91" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="C91" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="D91" s="18">
-        <v>1</v>
-      </c>
-      <c r="E91" s="15">
-        <v>0.9</v>
-      </c>
-      <c r="F91" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="19"/>
-      <c r="B92" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="C92" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="D92" s="18">
-        <v>1</v>
-      </c>
-      <c r="E92" s="15"/>
-      <c r="G92">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="B93" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="C93" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="D93" s="18">
-        <v>2</v>
-      </c>
-      <c r="E93" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="G93">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="B94" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="C94" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D94" s="18">
-        <v>2</v>
-      </c>
-      <c r="E94" s="15">
-        <v>365</v>
-      </c>
-      <c r="G94">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="B95" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="C95" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="D95" s="18">
-        <v>2</v>
-      </c>
-      <c r="E95" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="G95">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="B96" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="C96" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="D96" s="18">
-        <v>2</v>
-      </c>
-      <c r="E96" s="15">
-        <v>0</v>
-      </c>
-      <c r="G96">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="19"/>
-      <c r="B97" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="C97" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="D97" s="18">
-        <v>2</v>
-      </c>
-      <c r="E97" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="G97">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="19"/>
-      <c r="B98" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="C98" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="D98" s="18">
-        <v>2</v>
-      </c>
-      <c r="E98" s="15">
-        <v>0.6</v>
-      </c>
-      <c r="G98">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="19"/>
-      <c r="B99" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="C99" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="D99" s="18">
-        <v>2</v>
-      </c>
-      <c r="E99" s="15">
-        <v>0.68</v>
-      </c>
-      <c r="G99">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="19"/>
-      <c r="B100" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="C100" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="D100" s="18">
-        <v>2</v>
-      </c>
-      <c r="E100" s="15">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="G100">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="B101" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="C101" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="D101" s="18">
-        <v>2</v>
-      </c>
-      <c r="E101" s="15">
-        <v>0</v>
-      </c>
-      <c r="G101">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="19"/>
-      <c r="B102" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="C102" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="D102" s="18">
-        <v>2</v>
-      </c>
-      <c r="E102" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="19"/>
-      <c r="B103" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="C103" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="D103" s="18">
-        <v>2</v>
-      </c>
-      <c r="E103" s="15">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="19"/>
-      <c r="B104" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="C104" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="D104" s="18">
-        <v>2</v>
-      </c>
-      <c r="E104" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="19"/>
-      <c r="B105" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="C105" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="D105" s="18">
-        <v>2</v>
-      </c>
-      <c r="E105" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="20"/>
-      <c r="B106" s="20"/>
-      <c r="C106" s="21"/>
-      <c r="D106" s="22"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="20"/>
-      <c r="B107" s="20"/>
-      <c r="C107" s="21"/>
-      <c r="D107" s="22"/>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="20"/>
-      <c r="B108" s="20"/>
-      <c r="C108" s="21"/>
-      <c r="D108" s="22"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="20"/>
-      <c r="B109" s="20"/>
-      <c r="C109" s="21"/>
-      <c r="D109" s="22"/>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="20"/>
-      <c r="B110" s="20"/>
-      <c r="C110" s="21"/>
-      <c r="D110" s="22"/>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="20"/>
-      <c r="B111" s="20"/>
-      <c r="C111" s="21"/>
-      <c r="D111" s="22"/>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="20"/>
-      <c r="B112" s="20"/>
-      <c r="C112" s="21"/>
-      <c r="D112" s="22"/>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="20"/>
-      <c r="B113" s="20"/>
-      <c r="C113" s="21"/>
-      <c r="D113" s="22"/>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="20"/>
-      <c r="B114" s="20"/>
-      <c r="C114" s="21"/>
-      <c r="D114" s="22"/>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="20"/>
-      <c r="B115" s="20"/>
-      <c r="C115" s="21"/>
-      <c r="D115" s="22"/>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="20"/>
-      <c r="B116" s="20"/>
-      <c r="C116" s="21"/>
-      <c r="D116" s="22"/>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="20"/>
-      <c r="B117" s="20"/>
-      <c r="C117" s="21"/>
-      <c r="D117" s="22"/>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="20"/>
-      <c r="B118" s="20"/>
-      <c r="C118" s="21"/>
-      <c r="D118" s="22"/>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="20"/>
-      <c r="B119" s="20"/>
-      <c r="C119" s="21"/>
-      <c r="D119" s="22"/>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="20"/>
-      <c r="B120" s="20"/>
-      <c r="C120" s="21"/>
-      <c r="D120" s="22"/>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="20"/>
-      <c r="B121" s="20"/>
-      <c r="C121" s="21"/>
-      <c r="D121" s="22"/>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="20"/>
-      <c r="B122" s="20"/>
-      <c r="C122" s="21"/>
-      <c r="D122" s="22"/>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="20"/>
-      <c r="B123" s="20"/>
-      <c r="C123" s="21"/>
-      <c r="D123" s="22"/>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="20"/>
-      <c r="B124" s="20"/>
-      <c r="C124" s="21"/>
-      <c r="D124" s="22"/>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="20"/>
-      <c r="B125" s="20"/>
-      <c r="C125" s="21"/>
-      <c r="D125" s="22"/>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="20"/>
-      <c r="B126" s="20"/>
-      <c r="C126" s="21"/>
-      <c r="D126" s="22"/>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="20"/>
-      <c r="B127" s="20"/>
-      <c r="C127" s="21"/>
-      <c r="D127" s="22"/>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="20"/>
-      <c r="B128" s="20"/>
-      <c r="C128" s="21"/>
-      <c r="D128" s="22"/>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="20"/>
-      <c r="B129" s="20"/>
-      <c r="C129" s="21"/>
-      <c r="D129" s="22"/>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="20"/>
-      <c r="B130" s="20"/>
-      <c r="C130" s="21"/>
-      <c r="D130" s="22"/>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="20"/>
-      <c r="B131" s="20"/>
-      <c r="C131" s="21"/>
-      <c r="D131" s="22"/>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="20"/>
-      <c r="B132" s="20"/>
-      <c r="C132" s="21"/>
-      <c r="D132" s="22"/>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="20"/>
-      <c r="B133" s="20"/>
-      <c r="C133" s="21"/>
-      <c r="D133" s="22"/>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="20"/>
-      <c r="B134" s="20"/>
-      <c r="C134" s="21"/>
-      <c r="D134" s="22"/>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="20"/>
-      <c r="B135" s="20"/>
-      <c r="C135" s="21"/>
-      <c r="D135" s="22"/>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="20"/>
-      <c r="B136" s="20"/>
-      <c r="C136" s="21"/>
-      <c r="D136" s="22"/>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="20"/>
-      <c r="B137" s="20"/>
-      <c r="C137" s="21"/>
-      <c r="D137" s="22"/>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="20"/>
-      <c r="B138" s="20"/>
-      <c r="C138" s="21"/>
-      <c r="D138" s="22"/>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="20"/>
-      <c r="B139" s="20"/>
-      <c r="C139" s="21"/>
-      <c r="D139" s="22"/>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="20"/>
-      <c r="B140" s="20"/>
-      <c r="C140" s="21"/>
-      <c r="D140" s="22"/>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="20"/>
-      <c r="B141" s="20"/>
-      <c r="C141" s="21"/>
-      <c r="D141" s="22"/>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="20"/>
-      <c r="B142" s="20"/>
-      <c r="C142" s="21"/>
-      <c r="D142" s="22"/>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="20"/>
-      <c r="B143" s="20"/>
-      <c r="C143" s="21"/>
-      <c r="D143" s="22"/>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="20"/>
-      <c r="B144" s="20"/>
-      <c r="C144" s="21"/>
-      <c r="D144" s="22"/>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="20"/>
-      <c r="B145" s="20"/>
-      <c r="C145" s="21"/>
-      <c r="D145" s="22"/>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="20"/>
-      <c r="B146" s="20"/>
-      <c r="C146" s="21"/>
-      <c r="D146" s="22"/>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="20"/>
-      <c r="B147" s="20"/>
-      <c r="C147" s="21"/>
-      <c r="D147" s="22"/>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="20"/>
-      <c r="B148" s="20"/>
-      <c r="C148" s="21"/>
-      <c r="D148" s="22"/>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="20"/>
-      <c r="B149" s="20"/>
-      <c r="C149" s="21"/>
-      <c r="D149" s="22"/>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="20"/>
-      <c r="B150" s="20"/>
-      <c r="C150" s="21"/>
-      <c r="D150" s="22"/>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" s="20"/>
-      <c r="B151" s="20"/>
-      <c r="C151" s="21"/>
-      <c r="D151" s="22"/>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="20"/>
-      <c r="B152" s="20"/>
-      <c r="C152" s="21"/>
-      <c r="D152" s="22"/>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="20"/>
-      <c r="B153" s="20"/>
-      <c r="C153" s="21"/>
-      <c r="D153" s="22"/>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" s="20"/>
-      <c r="B154" s="20"/>
-      <c r="C154" s="21"/>
-      <c r="D154" s="22"/>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" s="20"/>
-      <c r="B155" s="20"/>
-      <c r="C155" s="21"/>
-      <c r="D155" s="22"/>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" s="20"/>
-      <c r="B156" s="20"/>
-      <c r="C156" s="21"/>
-      <c r="D156" s="22"/>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="20"/>
-      <c r="B157" s="20"/>
-      <c r="C157" s="21"/>
-      <c r="D157" s="22"/>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" s="20"/>
-      <c r="B158" s="20"/>
-      <c r="C158" s="21"/>
-      <c r="D158" s="22"/>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="20"/>
-      <c r="B159" s="20"/>
-      <c r="C159" s="21"/>
-      <c r="D159" s="22"/>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="20"/>
-      <c r="B160" s="20"/>
-      <c r="C160" s="21"/>
-      <c r="D160" s="22"/>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" s="20"/>
-      <c r="B161" s="20"/>
-      <c r="C161" s="21"/>
-      <c r="D161" s="22"/>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" s="20"/>
-      <c r="B162" s="20"/>
-      <c r="C162" s="21"/>
-      <c r="D162" s="22"/>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" s="20"/>
-      <c r="B163" s="20"/>
-      <c r="C163" s="21"/>
-      <c r="D163" s="22"/>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="20"/>
-      <c r="B164" s="20"/>
-      <c r="C164" s="21"/>
-      <c r="D164" s="22"/>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" s="20"/>
-      <c r="B165" s="20"/>
-      <c r="C165" s="21"/>
-      <c r="D165" s="22"/>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="20"/>
-      <c r="B166" s="20"/>
-      <c r="C166" s="21"/>
-      <c r="D166" s="22"/>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="20"/>
-      <c r="B167" s="20"/>
-      <c r="C167" s="21"/>
-      <c r="D167" s="22"/>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" s="20"/>
-      <c r="B168" s="20"/>
-      <c r="C168" s="21"/>
-      <c r="D168" s="22"/>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="20"/>
-      <c r="B169" s="20"/>
-      <c r="C169" s="21"/>
-      <c r="D169" s="22"/>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="20"/>
-      <c r="B170" s="20"/>
-      <c r="C170" s="21"/>
-      <c r="D170" s="22"/>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="20"/>
-      <c r="B171" s="20"/>
-      <c r="C171" s="21"/>
-      <c r="D171" s="22"/>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" s="20"/>
-      <c r="B172" s="20"/>
-      <c r="C172" s="21"/>
-      <c r="D172" s="22"/>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" s="20"/>
-      <c r="B173" s="20"/>
-      <c r="C173" s="21"/>
-      <c r="D173" s="22"/>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" s="20"/>
-      <c r="B174" s="20"/>
-      <c r="C174" s="21"/>
-      <c r="D174" s="22"/>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" s="20"/>
-      <c r="B175" s="20"/>
-      <c r="C175" s="21"/>
-      <c r="D175" s="22"/>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" s="20"/>
-      <c r="B176" s="20"/>
-      <c r="C176" s="21"/>
-      <c r="D176" s="22"/>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" s="20"/>
-      <c r="B177" s="20"/>
-      <c r="C177" s="21"/>
-      <c r="D177" s="22"/>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" s="20"/>
-      <c r="B178" s="20"/>
-      <c r="C178" s="21"/>
-      <c r="D178" s="22"/>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="20"/>
-      <c r="B179" s="20"/>
-      <c r="C179" s="21"/>
-      <c r="D179" s="22"/>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="20"/>
-      <c r="B180" s="20"/>
-      <c r="C180" s="21"/>
-      <c r="D180" s="22"/>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="20"/>
-      <c r="B181" s="20"/>
-      <c r="C181" s="21"/>
-      <c r="D181" s="22"/>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" s="20"/>
-      <c r="B182" s="20"/>
-      <c r="C182" s="21"/>
-      <c r="D182" s="22"/>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" s="20"/>
-      <c r="B183" s="20"/>
-      <c r="C183" s="21"/>
-      <c r="D183" s="22"/>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" s="20"/>
-      <c r="B184" s="20"/>
-      <c r="C184" s="21"/>
-      <c r="D184" s="22"/>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" s="20"/>
-      <c r="B185" s="20"/>
-      <c r="C185" s="21"/>
-      <c r="D185" s="22"/>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="20"/>
-      <c r="B186" s="20"/>
-      <c r="C186" s="21"/>
-      <c r="D186" s="22"/>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" s="20"/>
-      <c r="B187" s="20"/>
-      <c r="C187" s="21"/>
-      <c r="D187" s="22"/>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" s="20"/>
-      <c r="B188" s="20"/>
-      <c r="C188" s="21"/>
-      <c r="D188" s="22"/>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" s="20"/>
-      <c r="B189" s="20"/>
-      <c r="C189" s="21"/>
-      <c r="D189" s="22"/>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" s="20"/>
-      <c r="B190" s="20"/>
-      <c r="C190" s="21"/>
-      <c r="D190" s="22"/>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" s="20"/>
-      <c r="B191" s="20"/>
-      <c r="C191" s="21"/>
-      <c r="D191" s="22"/>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" s="20"/>
-      <c r="B192" s="20"/>
-      <c r="C192" s="21"/>
-      <c r="D192" s="22"/>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" s="20"/>
-      <c r="B193" s="20"/>
-      <c r="C193" s="21"/>
-      <c r="D193" s="22"/>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="20"/>
-      <c r="B194" s="20"/>
-      <c r="C194" s="21"/>
-      <c r="D194" s="22"/>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" s="20"/>
-      <c r="B195" s="20"/>
-      <c r="C195" s="21"/>
-      <c r="D195" s="22"/>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A196" s="20"/>
-      <c r="B196" s="20"/>
-      <c r="C196" s="21"/>
-      <c r="D196" s="22"/>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A197" s="20"/>
-      <c r="B197" s="20"/>
-      <c r="C197" s="21"/>
-      <c r="D197" s="22"/>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A198" s="20"/>
-      <c r="B198" s="20"/>
-      <c r="C198" s="21"/>
-      <c r="D198" s="22"/>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" s="20"/>
-      <c r="B199" s="20"/>
-      <c r="C199" s="21"/>
-      <c r="D199" s="22"/>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" s="20"/>
-      <c r="B200" s="20"/>
-      <c r="C200" s="21"/>
-      <c r="D200" s="22"/>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" s="20"/>
-      <c r="B201" s="20"/>
-      <c r="C201" s="21"/>
-      <c r="D201" s="22"/>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" s="20"/>
-      <c r="B202" s="20"/>
-      <c r="C202" s="21"/>
-      <c r="D202" s="22"/>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A203" s="20"/>
-      <c r="B203" s="20"/>
-      <c r="C203" s="21"/>
-      <c r="D203" s="22"/>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A204" s="20"/>
-      <c r="B204" s="20"/>
-      <c r="C204" s="21"/>
-      <c r="D204" s="22"/>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A205" s="20"/>
-      <c r="B205" s="20"/>
-      <c r="C205" s="21"/>
-      <c r="D205" s="22"/>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A206" s="20"/>
-      <c r="B206" s="20"/>
-      <c r="C206" s="21"/>
-      <c r="D206" s="22"/>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A207" s="20"/>
-      <c r="B207" s="20"/>
-      <c r="C207" s="21"/>
-      <c r="D207" s="22"/>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A208" s="20"/>
-      <c r="B208" s="20"/>
-      <c r="C208" s="21"/>
-      <c r="D208" s="22"/>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A209" s="20"/>
-      <c r="B209" s="20"/>
-      <c r="C209" s="21"/>
-      <c r="D209" s="22"/>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A210" s="20"/>
-      <c r="B210" s="20"/>
-      <c r="C210" s="21"/>
-      <c r="D210" s="22"/>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A211" s="20"/>
-      <c r="B211" s="20"/>
-      <c r="C211" s="21"/>
-      <c r="D211" s="22"/>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A212" s="20"/>
-      <c r="B212" s="20"/>
-      <c r="C212" s="21"/>
-      <c r="D212" s="22"/>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A213" s="20"/>
-      <c r="B213" s="20"/>
-      <c r="C213" s="21"/>
-      <c r="D213" s="22"/>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A214" s="20"/>
-      <c r="B214" s="20"/>
-      <c r="C214" s="21"/>
-      <c r="D214" s="22"/>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A215" s="20"/>
-      <c r="B215" s="20"/>
-      <c r="C215" s="21"/>
-      <c r="D215" s="22"/>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A216" s="20"/>
-      <c r="B216" s="20"/>
-      <c r="C216" s="21"/>
-      <c r="D216" s="22"/>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A217" s="20"/>
-      <c r="B217" s="20"/>
-      <c r="C217" s="21"/>
-      <c r="D217" s="22"/>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A218" s="20"/>
-      <c r="B218" s="20"/>
-      <c r="C218" s="21"/>
-      <c r="D218" s="22"/>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A219" s="20"/>
-      <c r="B219" s="20"/>
-      <c r="C219" s="21"/>
-      <c r="D219" s="22"/>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A220" s="20"/>
-      <c r="B220" s="20"/>
-      <c r="C220" s="21"/>
-      <c r="D220" s="22"/>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A221" s="20"/>
-      <c r="B221" s="20"/>
-      <c r="C221" s="21"/>
-      <c r="D221" s="22"/>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A222" s="20"/>
-      <c r="B222" s="20"/>
-      <c r="C222" s="21"/>
-      <c r="D222" s="22"/>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A223" s="20"/>
-      <c r="B223" s="20"/>
-      <c r="C223" s="21"/>
-      <c r="D223" s="22"/>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A224" s="20"/>
-      <c r="B224" s="20"/>
-      <c r="C224" s="21"/>
-      <c r="D224" s="22"/>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A225" s="20"/>
-      <c r="B225" s="20"/>
-      <c r="C225" s="21"/>
-      <c r="D225" s="22"/>
-    </row>
-  </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A56:A59"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="F30:F35"/>
-    <mergeCell ref="A30:A35"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A36:A39"/>
-  </mergeCells>
-  <dataValidations count="13">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11 E17 E29" xr:uid="{FEC1871F-0B63-45CE-84E2-697ABFCCA571}">
-      <formula1>"Annual, Herbaceous perennial, Woody perennial"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10" xr:uid="{BF09F0A8-DEDC-4564-B7AE-B6347D314DF5}">
-      <formula1>"C3, C4, CAM"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E12:E16" xr:uid="{2135F1C0-D38D-4F5D-8EF7-81232862BF29}">
-      <formula1>1</formula1>
-      <formula2>366</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E26 E79 E74 E76:E77" xr:uid="{99673017-9BA7-4007-B122-EE6B62E8329F}">
-      <formula1>0</formula1>
-      <formula2>1</formula2>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E78" xr:uid="{AD51276E-9E22-4C8A-A243-458D6265E1F0}">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6" xr:uid="{9966BE53-3AF7-47D9-9DC3-79C6924CF42E}">
-      <formula1>"angiosperm, gymnosperm"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5" xr:uid="{438C592B-01D2-41F3-9E7B-4C509AE80A91}">
-      <formula1>"monocot, dicot"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4" xr:uid="{4695B65F-F242-4655-9983-F7931FCFC7A1}">
-      <formula1>"graminoid, forb_herb, shrub, tree"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10" xr:uid="{0112A41A-9292-4030-8737-C126C38A2DAA}">
-      <formula1>"C3, C4"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7" xr:uid="{91D25E75-68D5-4C64-BABF-5FDC6B6EC5E0}">
-      <formula1>"annual, perennial deciduous, perennial evergreen"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8" xr:uid="{49CF716A-5412-4AD4-9944-2EC89E33B7C3}">
-      <formula1>"bunch, colonizing, multiple_stems, rhizomatous,single_crown,single_stem,stoloniferous,thicket_forming"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9" xr:uid="{82D88EBD-3D9A-4158-A9B3-F883994282C6}">
-      <formula1>"climbing,columnar,conical,decumbent,erect,irregular,oval,prostrate,rounded,semi_erect,vase"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E82 E95" xr:uid="{3B070726-5ED6-4F50-8EA9-9C057DD1E6C1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E83 E96" xr:uid="{C614F1BE-BCDD-4E7E-8FB4-A3D677A1BB44}">
       <formula1>"year-round, during growing season, during dormant season"</formula1>
     </dataValidation>
   </dataValidations>

--- a/notebooks/GenVeg/GenVeg_OR_Dune_Simulation.xlsx
+++ b/notebooks/GenVeg/GenVeg_OR_Dune_Simulation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\landlab\notebooks\GenVeg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD343CCC-6A71-46B3-B1F4-FFFEED924F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59C5A57-20C7-40DC-A66A-C66B89C7F986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4FA2BB3E-4334-4C54-90D8-DFF869504B66}"/>
+    <workbookView xWindow="-38510" yWindow="-16300" windowWidth="38620" windowHeight="21220" xr2:uid="{4FA2BB3E-4334-4C54-90D8-DFF869504B66}"/>
   </bookViews>
   <sheets>
     <sheet name="AMAR" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="154">
   <si>
     <t>Parameter</t>
   </si>
@@ -627,6 +627,37 @@
   </si>
   <si>
     <t>AMBR</t>
+  </si>
+  <si>
+    <t>sp_leaf_area</t>
+  </si>
+  <si>
+    <r>
+      <t>Specific leaf area m</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/g</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1178,10 +1209,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80E79F65-55A0-4555-9123-F8DD121DC0BA}">
-  <dimension ref="A1:M226"/>
+  <dimension ref="A1:M227"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:A27"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2486,245 +2517,242 @@
         <v>52</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A72" s="19" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="B72" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="C72" s="19" t="s">
+      <c r="C72" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="D72" s="18"/>
+      <c r="E72" s="15">
+        <v>5.6730000000000001E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="B73" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C73" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="D72" s="19"/>
-      <c r="E72" s="15">
+      <c r="D73" s="19"/>
+      <c r="E73" s="15">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G72">
+      <c r="G73">
         <v>53</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="5" t="s">
+    <row r="74" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B73" s="5"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="8"/>
-      <c r="G73">
+      <c r="B74" s="5"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="8"/>
+      <c r="G74">
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="19" t="s">
+    <row r="75" spans="1:7" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="19" t="s">
         <v>114</v>
-      </c>
-      <c r="B74" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="C74" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="D74" s="18"/>
-      <c r="E74" s="15">
-        <v>0.7</v>
-      </c>
-      <c r="G74">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" s="19" t="s">
-        <v>115</v>
       </c>
       <c r="B75" s="19" t="s">
         <v>91</v>
       </c>
       <c r="C75" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D75" s="18"/>
       <c r="E75" s="15">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="G75">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B76" s="19" t="s">
         <v>91</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="D76" s="18"/>
       <c r="E76" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="G76">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B77" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C77" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="D77" s="18"/>
+      <c r="E77" s="15">
         <v>2.6840000000000002</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F77" t="s">
         <v>117</v>
       </c>
-      <c r="G76">
+      <c r="G77">
         <v>57</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="5" t="s">
+    <row r="78" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B77" s="5"/>
-      <c r="C77" s="6"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="6"/>
-      <c r="F77" t="s">
+      <c r="B78" s="5"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="6"/>
+      <c r="F78" t="s">
         <v>98</v>
       </c>
-      <c r="G77">
+      <c r="G78">
         <v>58</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="19" t="s">
+    <row r="79" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="19" t="s">
         <v>48</v>
-      </c>
-      <c r="B78" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="C78" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D78" s="18"/>
-      <c r="E78" s="15">
-        <v>0.01</v>
-      </c>
-      <c r="F78" t="s">
-        <v>103</v>
-      </c>
-      <c r="G78">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="19" t="s">
-        <v>50</v>
       </c>
       <c r="B79" s="19" t="s">
         <v>87</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D79" s="18"/>
       <c r="E79" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="F79" t="s">
+        <v>103</v>
+      </c>
+      <c r="G79">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B80" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C80" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D80" s="18"/>
+      <c r="E80" s="15">
         <v>365</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F80" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="5" t="s">
+    <row r="81" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B80" s="5"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="8" t="s">
+      <c r="B81" s="5"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G80">
+      <c r="G81">
         <v>60</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="19" t="s">
+    <row r="82" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="19" t="s">
         <v>54</v>
-      </c>
-      <c r="B81" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="C81" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="D81" s="18">
-        <v>1</v>
-      </c>
-      <c r="E81" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="G81">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="19" t="s">
-        <v>56</v>
       </c>
       <c r="B82" s="19" t="s">
         <v>92</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="D82" s="18">
         <v>1</v>
       </c>
-      <c r="E82" s="15">
-        <v>207</v>
+      <c r="E82" s="12" t="s">
+        <v>55</v>
       </c>
       <c r="G82">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="19" t="s">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="B83" s="19" t="s">
         <v>92</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="D83" s="18">
         <v>1</v>
       </c>
-      <c r="E83" s="12" t="s">
-        <v>101</v>
+      <c r="E83" s="15">
+        <v>207</v>
       </c>
       <c r="G83">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="19" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="B84" s="19" t="s">
         <v>92</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D84" s="18">
         <v>1</v>
       </c>
-      <c r="E84">
-        <v>20</v>
+      <c r="E84" s="12" t="s">
+        <v>101</v>
       </c>
       <c r="G84">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="19"/>
+      <c r="A85" s="19" t="s">
+        <v>57</v>
+      </c>
       <c r="B85" s="19" t="s">
         <v>92</v>
       </c>
@@ -2734,11 +2762,11 @@
       <c r="D85" s="18">
         <v>1</v>
       </c>
-      <c r="E85" s="15">
-        <v>30</v>
+      <c r="E85">
+        <v>20</v>
       </c>
       <c r="G85">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -2753,10 +2781,10 @@
         <v>1</v>
       </c>
       <c r="E86" s="15">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="G86">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -2771,10 +2799,10 @@
         <v>1</v>
       </c>
       <c r="E87" s="15">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="G87">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -2788,34 +2816,32 @@
       <c r="D88" s="18">
         <v>1</v>
       </c>
-      <c r="E88" s="15"/>
+      <c r="E88" s="15">
+        <v>100</v>
+      </c>
       <c r="G88">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="19" t="s">
-        <v>105</v>
-      </c>
+      <c r="A89" s="19"/>
       <c r="B89" s="19" t="s">
         <v>92</v>
       </c>
       <c r="C89" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D89" s="18">
         <v>1</v>
       </c>
-      <c r="E89" s="15">
-        <v>0</v>
-      </c>
+      <c r="E89" s="15"/>
       <c r="G89">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B90" s="19" t="s">
         <v>92</v>
@@ -2827,15 +2853,15 @@
         <v>1</v>
       </c>
       <c r="E90" s="15">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G90">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B91" s="19" t="s">
         <v>92</v>
@@ -2847,14 +2873,16 @@
         <v>1</v>
       </c>
       <c r="E91" s="15">
-        <v>0.67</v>
+        <v>0.01</v>
       </c>
       <c r="G91">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="19"/>
+      <c r="A92" s="19" t="s">
+        <v>107</v>
+      </c>
       <c r="B92" s="19" t="s">
         <v>92</v>
       </c>
@@ -2865,7 +2893,10 @@
         <v>1</v>
       </c>
       <c r="E92" s="15">
-        <v>1</v>
+        <v>0.67</v>
+      </c>
+      <c r="G92">
+        <v>76</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -2879,93 +2910,90 @@
       <c r="D93" s="18">
         <v>1</v>
       </c>
-      <c r="E93" s="15"/>
-      <c r="G93">
-        <v>77</v>
+      <c r="E93" s="15">
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="19" t="s">
-        <v>58</v>
-      </c>
+      <c r="A94" s="19"/>
       <c r="B94" s="19" t="s">
         <v>92</v>
       </c>
       <c r="C94" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D94" s="18">
-        <v>2</v>
-      </c>
-      <c r="E94" s="12" t="s">
-        <v>134</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E94" s="15"/>
       <c r="G94">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B95" s="19" t="s">
         <v>92</v>
       </c>
       <c r="C95" s="17" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="D95" s="18">
         <v>2</v>
       </c>
-      <c r="E95" s="15">
-        <v>365</v>
+      <c r="E95" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="G95">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="19" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="B96" s="19" t="s">
         <v>92</v>
       </c>
       <c r="C96" s="17" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="D96" s="18">
         <v>2</v>
       </c>
-      <c r="E96" s="12" t="s">
-        <v>101</v>
+      <c r="E96" s="15">
+        <v>365</v>
       </c>
       <c r="G96">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="19" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="B97" s="19" t="s">
         <v>92</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D97" s="18">
         <v>2</v>
       </c>
-      <c r="E97" s="15">
-        <v>0</v>
+      <c r="E97" s="12" t="s">
+        <v>101</v>
       </c>
       <c r="G97">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="19"/>
+      <c r="A98" s="19" t="s">
+        <v>60</v>
+      </c>
       <c r="B98" s="19" t="s">
         <v>92</v>
       </c>
@@ -2976,10 +3004,10 @@
         <v>2</v>
       </c>
       <c r="E98" s="15">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G98">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -2994,10 +3022,10 @@
         <v>2</v>
       </c>
       <c r="E99" s="15">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G99">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -3012,10 +3040,10 @@
         <v>2</v>
       </c>
       <c r="E100" s="15">
-        <v>1.1200000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="G100">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -3030,35 +3058,33 @@
         <v>2</v>
       </c>
       <c r="E101" s="15">
-        <v>1.69</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="G101">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="19" t="s">
-        <v>61</v>
-      </c>
+      <c r="A102" s="19"/>
       <c r="B102" s="19" t="s">
         <v>92</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D102" s="18">
         <v>2</v>
       </c>
       <c r="E102" s="15">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="G102">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="19" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="B103" s="19" t="s">
         <v>92</v>
@@ -3072,10 +3098,13 @@
       <c r="E103" s="15">
         <v>0</v>
       </c>
+      <c r="G103">
+        <v>86</v>
+      </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B104" s="19" t="s">
         <v>92</v>
@@ -3087,11 +3116,13 @@
         <v>2</v>
       </c>
       <c r="E104" s="15">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="19"/>
+      <c r="A105" s="19" t="s">
+        <v>107</v>
+      </c>
       <c r="B105" s="19" t="s">
         <v>92</v>
       </c>
@@ -3102,7 +3133,7 @@
         <v>2</v>
       </c>
       <c r="E105" s="15">
-        <v>1</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -3121,10 +3152,19 @@
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="20"/>
-      <c r="B107" s="20"/>
-      <c r="C107" s="21"/>
-      <c r="D107" s="22"/>
+      <c r="A107" s="19"/>
+      <c r="B107" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C107" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D107" s="18">
+        <v>2</v>
+      </c>
+      <c r="E107" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="20"/>
@@ -3782,6 +3822,7 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="20"/>
+      <c r="B217" s="20"/>
       <c r="C217" s="21"/>
       <c r="D217" s="22"/>
     </row>
@@ -3829,6 +3870,11 @@
       <c r="A226" s="20"/>
       <c r="C226" s="21"/>
       <c r="D226" s="22"/>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" s="20"/>
+      <c r="C227" s="21"/>
+      <c r="D227" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3843,7 +3889,7 @@
     <mergeCell ref="A45:A48"/>
   </mergeCells>
   <dataValidations count="13">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E83 E96" xr:uid="{480460A2-D10E-4C2E-BA5E-21462BF2B0CF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E84 E97" xr:uid="{480460A2-D10E-4C2E-BA5E-21462BF2B0CF}">
       <formula1>"year-round, during growing season, during dormant season"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7" xr:uid="{4ED843AD-6506-4488-81F0-2E4530225275}">
@@ -3868,11 +3914,11 @@
       <formula1>1</formula1>
       <formula2>366</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E28 E80 E75 E77:E78" xr:uid="{9298BE9C-4866-4FDF-8495-FA9D24E8AD2D}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E28 E81 E76 E78:E79" xr:uid="{9298BE9C-4866-4FDF-8495-FA9D24E8AD2D}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E79" xr:uid="{AC096415-C5D5-454E-899E-A32D627F8EBF}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E80" xr:uid="{AC096415-C5D5-454E-899E-A32D627F8EBF}">
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6" xr:uid="{DB50D8EF-3992-4907-92EC-8CAD86B104C4}">
@@ -3892,10 +3938,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59430052-850A-4E52-8B29-0C7825B169C3}">
-  <dimension ref="A1:M226"/>
+  <dimension ref="A1:M227"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="A47" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5197,245 +5243,242 @@
         <v>52</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A72" s="19" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="B72" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="C72" s="19" t="s">
+      <c r="C72" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="D72" s="18"/>
+      <c r="E72" s="15">
+        <v>6.6309999999999997E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="B73" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C73" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="D72" s="19"/>
-      <c r="E72" s="15">
+      <c r="D73" s="19"/>
+      <c r="E73" s="15">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F73" t="s">
         <v>117</v>
       </c>
-      <c r="G72">
+      <c r="G73">
         <v>53</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="5" t="s">
+    <row r="74" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B73" s="5"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="8"/>
-      <c r="G73">
+      <c r="B74" s="5"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="8"/>
+      <c r="G74">
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="19" t="s">
+    <row r="75" spans="1:7" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="19" t="s">
         <v>114</v>
-      </c>
-      <c r="B74" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="C74" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="D74" s="18"/>
-      <c r="E74" s="15">
-        <v>0.93600000000000005</v>
-      </c>
-      <c r="G74">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" s="19" t="s">
-        <v>115</v>
       </c>
       <c r="B75" s="19" t="s">
         <v>91</v>
       </c>
       <c r="C75" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D75" s="18"/>
       <c r="E75" s="15">
-        <v>0.5</v>
+        <v>0.93600000000000005</v>
       </c>
       <c r="G75">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B76" s="19" t="s">
         <v>91</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="D76" s="18"/>
       <c r="E76" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="G76">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B77" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C77" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="D77" s="18"/>
+      <c r="E77" s="15">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F76" s="8" t="s">
+      <c r="F77" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G76">
+      <c r="G77">
         <v>57</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="5" t="s">
+    <row r="78" spans="1:7" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B77" s="5"/>
-      <c r="C77" s="6"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="6"/>
-      <c r="F77" t="s">
+      <c r="B78" s="5"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="6"/>
+      <c r="F78" t="s">
         <v>98</v>
       </c>
-      <c r="G77">
+      <c r="G78">
         <v>58</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="19" t="s">
+    <row r="79" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="19" t="s">
         <v>48</v>
-      </c>
-      <c r="B78" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="C78" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D78" s="18"/>
-      <c r="E78" s="15">
-        <v>0.01</v>
-      </c>
-      <c r="F78" t="s">
-        <v>103</v>
-      </c>
-      <c r="G78">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="19" t="s">
-        <v>50</v>
       </c>
       <c r="B79" s="19" t="s">
         <v>87</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D79" s="18"/>
       <c r="E79" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="F79" t="s">
+        <v>103</v>
+      </c>
+      <c r="G79">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B80" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C80" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D80" s="18"/>
+      <c r="E80" s="15">
         <v>365</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F80" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="5" t="s">
+    <row r="81" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B80" s="5"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="6"/>
-      <c r="G80">
+      <c r="B81" s="5"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="6"/>
+      <c r="G81">
         <v>60</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="19" t="s">
+    <row r="82" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="19" t="s">
         <v>54</v>
-      </c>
-      <c r="B81" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="C81" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="D81" s="18">
-        <v>1</v>
-      </c>
-      <c r="E81" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="G81">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="19" t="s">
-        <v>56</v>
       </c>
       <c r="B82" s="19" t="s">
         <v>92</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="D82" s="18">
         <v>1</v>
       </c>
-      <c r="E82" s="15">
-        <v>207</v>
+      <c r="E82" s="12" t="s">
+        <v>55</v>
       </c>
       <c r="G82">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="19" t="s">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="B83" s="19" t="s">
         <v>92</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="D83" s="18">
         <v>1</v>
       </c>
-      <c r="E83" s="12" t="s">
-        <v>101</v>
+      <c r="E83" s="15">
+        <v>207</v>
       </c>
       <c r="G83">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="19" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="B84" s="19" t="s">
         <v>92</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D84" s="18">
         <v>1</v>
       </c>
-      <c r="E84">
-        <v>20</v>
+      <c r="E84" s="12" t="s">
+        <v>101</v>
       </c>
       <c r="G84">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="19"/>
+      <c r="A85" s="19" t="s">
+        <v>57</v>
+      </c>
       <c r="B85" s="19" t="s">
         <v>92</v>
       </c>
@@ -5445,11 +5488,11 @@
       <c r="D85" s="18">
         <v>1</v>
       </c>
-      <c r="E85" s="15">
-        <v>30</v>
+      <c r="E85">
+        <v>20</v>
       </c>
       <c r="G85">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -5464,10 +5507,10 @@
         <v>1</v>
       </c>
       <c r="E86" s="15">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="G86">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -5482,10 +5525,10 @@
         <v>1</v>
       </c>
       <c r="E87" s="15">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="G87">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -5499,34 +5542,32 @@
       <c r="D88" s="18">
         <v>1</v>
       </c>
-      <c r="E88" s="15"/>
+      <c r="E88" s="15">
+        <v>100</v>
+      </c>
       <c r="G88">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="19" t="s">
-        <v>105</v>
-      </c>
+      <c r="A89" s="19"/>
       <c r="B89" s="19" t="s">
         <v>92</v>
       </c>
       <c r="C89" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D89" s="18">
         <v>1</v>
       </c>
-      <c r="E89" s="15">
-        <v>0</v>
-      </c>
+      <c r="E89" s="15"/>
       <c r="G89">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B90" s="19" t="s">
         <v>92</v>
@@ -5538,15 +5579,15 @@
         <v>1</v>
       </c>
       <c r="E90" s="15">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G90">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B91" s="19" t="s">
         <v>92</v>
@@ -5558,14 +5599,16 @@
         <v>1</v>
       </c>
       <c r="E91" s="15">
-        <v>0.67</v>
+        <v>0.01</v>
       </c>
       <c r="G91">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="19"/>
+      <c r="A92" s="19" t="s">
+        <v>107</v>
+      </c>
       <c r="B92" s="19" t="s">
         <v>92</v>
       </c>
@@ -5576,7 +5619,10 @@
         <v>1</v>
       </c>
       <c r="E92" s="15">
-        <v>1</v>
+        <v>0.67</v>
+      </c>
+      <c r="G92">
+        <v>76</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -5590,93 +5636,90 @@
       <c r="D93" s="18">
         <v>1</v>
       </c>
-      <c r="E93" s="15"/>
-      <c r="G93">
-        <v>77</v>
+      <c r="E93" s="15">
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="19" t="s">
-        <v>58</v>
-      </c>
+      <c r="A94" s="19"/>
       <c r="B94" s="19" t="s">
         <v>92</v>
       </c>
       <c r="C94" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D94" s="18">
-        <v>2</v>
-      </c>
-      <c r="E94" s="12" t="s">
-        <v>134</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E94" s="15"/>
       <c r="G94">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B95" s="19" t="s">
         <v>92</v>
       </c>
       <c r="C95" s="17" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="D95" s="18">
         <v>2</v>
       </c>
-      <c r="E95" s="15">
-        <v>365</v>
+      <c r="E95" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="G95">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="19" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="B96" s="19" t="s">
         <v>92</v>
       </c>
       <c r="C96" s="17" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="D96" s="18">
         <v>2</v>
       </c>
-      <c r="E96" s="12" t="s">
-        <v>101</v>
+      <c r="E96" s="15">
+        <v>365</v>
       </c>
       <c r="G96">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="19" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="B97" s="19" t="s">
         <v>92</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D97" s="18">
         <v>2</v>
       </c>
-      <c r="E97" s="15">
-        <v>0</v>
+      <c r="E97" s="12" t="s">
+        <v>101</v>
       </c>
       <c r="G97">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="19"/>
+      <c r="A98" s="19" t="s">
+        <v>60</v>
+      </c>
       <c r="B98" s="19" t="s">
         <v>92</v>
       </c>
@@ -5687,10 +5730,10 @@
         <v>2</v>
       </c>
       <c r="E98" s="15">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G98">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -5705,10 +5748,10 @@
         <v>2</v>
       </c>
       <c r="E99" s="15">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G99">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -5723,10 +5766,10 @@
         <v>2</v>
       </c>
       <c r="E100" s="15">
-        <v>1.1200000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="G100">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -5741,35 +5784,33 @@
         <v>2</v>
       </c>
       <c r="E101" s="15">
-        <v>1.69</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="G101">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="19" t="s">
-        <v>61</v>
-      </c>
+      <c r="A102" s="19"/>
       <c r="B102" s="19" t="s">
         <v>92</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D102" s="18">
         <v>2</v>
       </c>
       <c r="E102" s="15">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="G102">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="19" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="B103" s="19" t="s">
         <v>92</v>
@@ -5783,10 +5824,13 @@
       <c r="E103" s="15">
         <v>0</v>
       </c>
+      <c r="G103">
+        <v>86</v>
+      </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B104" s="19" t="s">
         <v>92</v>
@@ -5798,11 +5842,13 @@
         <v>2</v>
       </c>
       <c r="E104" s="15">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="19"/>
+      <c r="A105" s="19" t="s">
+        <v>107</v>
+      </c>
       <c r="B105" s="19" t="s">
         <v>92</v>
       </c>
@@ -5813,7 +5859,7 @@
         <v>2</v>
       </c>
       <c r="E105" s="15">
-        <v>1</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -5832,10 +5878,19 @@
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="20"/>
-      <c r="B107" s="20"/>
-      <c r="C107" s="21"/>
-      <c r="D107" s="22"/>
+      <c r="A107" s="19"/>
+      <c r="B107" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C107" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D107" s="18">
+        <v>2</v>
+      </c>
+      <c r="E107" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="20"/>
@@ -6493,6 +6548,7 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="20"/>
+      <c r="B217" s="20"/>
       <c r="C217" s="21"/>
       <c r="D217" s="22"/>
     </row>
@@ -6540,6 +6596,11 @@
       <c r="A226" s="20"/>
       <c r="C226" s="21"/>
       <c r="D226" s="22"/>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" s="20"/>
+      <c r="C227" s="21"/>
+      <c r="D227" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -6564,10 +6625,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6" xr:uid="{FCAB33B4-E22D-416A-9EE8-1B6629F4B7A9}">
       <formula1>"angiosperm, gymnosperm"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E79" xr:uid="{2A9331BB-EEBF-40CD-B47D-E4013CB2D0AD}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E80" xr:uid="{2A9331BB-EEBF-40CD-B47D-E4013CB2D0AD}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E28 E80 E75 E77:E78" xr:uid="{C20F82BC-B9F3-4514-8D12-0BF659884D61}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E28 E81 E76 E78:E79" xr:uid="{C20F82BC-B9F3-4514-8D12-0BF659884D61}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
@@ -6593,7 +6654,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7" xr:uid="{793E17DF-C558-4DAF-B608-9E20297CD619}">
       <formula1>"annual, perennial evergreen, perennial deciduous"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E83 E96" xr:uid="{C614F1BE-BCDD-4E7E-8FB4-A3D677A1BB44}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E84 E97" xr:uid="{C614F1BE-BCDD-4E7E-8FB4-A3D677A1BB44}">
       <formula1>"year-round, during growing season, during dormant season"</formula1>
     </dataValidation>
   </dataValidations>
